--- a/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_odi.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/WPBC_withoutdupl_norm_odi.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,5750 +394,5153 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08362543295222094</v>
+        <v>0.08697149227569448</v>
       </c>
       <c r="C2">
-        <v>0.1250544786472856</v>
+        <v>0.1520128154879933</v>
       </c>
       <c r="D2">
-        <v>0.1340285832567631</v>
+        <v>0.1516541033501063</v>
       </c>
       <c r="E2">
-        <v>0.1241753441180519</v>
+        <v>0.1336895919631272</v>
       </c>
       <c r="F2">
-        <v>0.2329615824926295</v>
+        <v>0.2641952761282909</v>
       </c>
       <c r="G2">
-        <v>0.093492877217409</v>
+        <v>0.1117169374770378</v>
       </c>
       <c r="H2">
-        <v>0.09290945055520065</v>
-      </c>
-      <c r="I2">
-        <v>0.1137522507604394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.09975978331775009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2026714773480636</v>
+        <v>0.2426154008968648</v>
       </c>
       <c r="C3">
-        <v>0.1087553258915202</v>
+        <v>0.1216962836745236</v>
       </c>
       <c r="D3">
-        <v>0.07780627824269516</v>
+        <v>0.08353150006627542</v>
       </c>
       <c r="E3">
-        <v>0.08503692718545489</v>
+        <v>0.09062664191553453</v>
       </c>
       <c r="F3">
-        <v>0.1022349483811129</v>
+        <v>0.1151297127247967</v>
       </c>
       <c r="G3">
-        <v>0.1046289202436861</v>
+        <v>0.1076393829539266</v>
       </c>
       <c r="H3">
-        <v>0.215299851749827</v>
-      </c>
-      <c r="I3">
-        <v>0.1035662709576402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.2387610777680785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1514245558033093</v>
+        <v>0.1658473025475197</v>
       </c>
       <c r="C4">
-        <v>0.1311708365309006</v>
+        <v>0.1497702613606542</v>
       </c>
       <c r="D4">
-        <v>0.1104855025839058</v>
+        <v>0.1266096551435123</v>
       </c>
       <c r="E4">
-        <v>0.09972055599233273</v>
+        <v>0.1151690843360584</v>
       </c>
       <c r="F4">
-        <v>0.07573845901403994</v>
+        <v>0.08921481566880049</v>
       </c>
       <c r="G4">
-        <v>0.164362874210634</v>
+        <v>0.1886645718035092</v>
       </c>
       <c r="H4">
-        <v>0.143841069678817</v>
-      </c>
-      <c r="I4">
-        <v>0.1232561461860605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1647243091399457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1125268263792903</v>
+        <v>0.1156889317008422</v>
       </c>
       <c r="C5">
-        <v>0.02418403399144415</v>
+        <v>0.02486528384115568</v>
       </c>
       <c r="D5">
-        <v>0.007526498204713255</v>
+        <v>0.005925272633633585</v>
       </c>
       <c r="E5">
-        <v>0.006606176439793907</v>
+        <v>0.005200742878089429</v>
       </c>
       <c r="F5">
-        <v>0.07320090621684877</v>
+        <v>0.07526014983256644</v>
       </c>
       <c r="G5">
-        <v>0.729660073208938</v>
+        <v>0.7498151939536026</v>
       </c>
       <c r="H5">
-        <v>0.02260755611605038</v>
-      </c>
-      <c r="I5">
-        <v>0.02368792944292121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.02324442516010995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1124943916193586</v>
+        <v>0.1290544480249051</v>
       </c>
       <c r="C6">
-        <v>0.1180650339720602</v>
+        <v>0.1328067651115497</v>
       </c>
       <c r="D6">
-        <v>0.1319975739390906</v>
+        <v>0.1504792312773631</v>
       </c>
       <c r="E6">
-        <v>0.129495254619268</v>
+        <v>0.154671981558888</v>
       </c>
       <c r="F6">
-        <v>0.1257734709314833</v>
+        <v>0.1444934013361085</v>
       </c>
       <c r="G6">
-        <v>0.1469244952973266</v>
+        <v>0.1684442125550805</v>
       </c>
       <c r="H6">
-        <v>0.104089052685312</v>
-      </c>
-      <c r="I6">
-        <v>0.1311607269361006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1200499601361051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1094495327380996</v>
+        <v>0.127902352225369</v>
       </c>
       <c r="C7">
-        <v>0.1362348407058579</v>
+        <v>0.1561465636502847</v>
       </c>
       <c r="D7">
-        <v>0.1211639087190829</v>
+        <v>0.1399932487671014</v>
       </c>
       <c r="E7">
-        <v>0.1344893323308675</v>
+        <v>0.1549522646832779</v>
       </c>
       <c r="F7">
-        <v>0.1431463632165871</v>
+        <v>0.1628546509020331</v>
       </c>
       <c r="G7">
-        <v>0.1225290659932665</v>
+        <v>0.1397859713405498</v>
       </c>
       <c r="H7">
-        <v>0.102926723252218</v>
-      </c>
-      <c r="I7">
-        <v>0.1300602330440205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1183649484313842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1690963429700263</v>
+        <v>0.1990112291566636</v>
       </c>
       <c r="C8">
-        <v>0.1095081662185415</v>
+        <v>0.1250566147731014</v>
       </c>
       <c r="D8">
-        <v>0.08949247023743936</v>
+        <v>0.1052829933754165</v>
       </c>
       <c r="E8">
-        <v>0.133667859418395</v>
+        <v>0.1621824470446026</v>
       </c>
       <c r="F8">
-        <v>0.2493806600798128</v>
+        <v>0.2716502275215874</v>
       </c>
       <c r="G8">
-        <v>0.04881282189995096</v>
+        <v>0.04402872463118373</v>
       </c>
       <c r="H8">
-        <v>0.09153379914981956</v>
-      </c>
-      <c r="I8">
-        <v>0.1085078800260146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.09278776349744483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1010548352156739</v>
+        <v>0.1088011004985767</v>
       </c>
       <c r="C9">
-        <v>0.1219358352667729</v>
+        <v>0.1414724597589777</v>
       </c>
       <c r="D9">
-        <v>0.1555855249002396</v>
+        <v>0.166681403848364</v>
       </c>
       <c r="E9">
-        <v>0.1275441897841889</v>
+        <v>0.1381823455653957</v>
       </c>
       <c r="F9">
-        <v>0.1496625187172415</v>
+        <v>0.1740422842820588</v>
       </c>
       <c r="G9">
-        <v>0.1398294588891566</v>
+        <v>0.1643576487165724</v>
       </c>
       <c r="H9">
-        <v>0.08772997260036666</v>
-      </c>
-      <c r="I9">
-        <v>0.11665766462636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1064627573300546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1369472633023184</v>
+        <v>0.1621974323250038</v>
       </c>
       <c r="C10">
-        <v>0.1211048392595827</v>
+        <v>0.1334631972887931</v>
       </c>
       <c r="D10">
-        <v>0.1189838889975565</v>
+        <v>0.1375080688081967</v>
       </c>
       <c r="E10">
-        <v>0.118686765716746</v>
+        <v>0.135855733473259</v>
       </c>
       <c r="F10">
-        <v>0.1100207796143328</v>
+        <v>0.1192715437587491</v>
       </c>
       <c r="G10">
-        <v>0.1279352994689297</v>
+        <v>0.1450184363687639</v>
       </c>
       <c r="H10">
-        <v>0.1444249963183983</v>
-      </c>
-      <c r="I10">
-        <v>0.1218961673221356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1666855879772345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1457458090525575</v>
+        <v>0.1683383421734668</v>
       </c>
       <c r="C11">
-        <v>0.1482876440803647</v>
+        <v>0.1587822886807481</v>
       </c>
       <c r="D11">
-        <v>0.158207871325394</v>
+        <v>0.1801170209481859</v>
       </c>
       <c r="E11">
-        <v>0.1072967899521056</v>
+        <v>0.122155133317942</v>
       </c>
       <c r="F11">
-        <v>0.03416568878610327</v>
+        <v>0.04258261131161672</v>
       </c>
       <c r="G11">
-        <v>0.1085957541434429</v>
+        <v>0.1107164405046592</v>
       </c>
       <c r="H11">
-        <v>0.1664079860953936</v>
-      </c>
-      <c r="I11">
-        <v>0.1312924565646384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.2173081630633812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1355099356177907</v>
+        <v>0.1533847981538195</v>
       </c>
       <c r="C12">
-        <v>0.1269809501029439</v>
+        <v>0.1447971399383874</v>
       </c>
       <c r="D12">
-        <v>0.1195819269733435</v>
+        <v>0.139032215556997</v>
       </c>
       <c r="E12">
-        <v>0.1248505176127911</v>
+        <v>0.1452317212862074</v>
       </c>
       <c r="F12">
-        <v>0.1181316334703691</v>
+        <v>0.1348877150211021</v>
       </c>
       <c r="G12">
-        <v>0.1147696317603409</v>
+        <v>0.1316773983477273</v>
       </c>
       <c r="H12">
-        <v>0.1331538319158083</v>
-      </c>
-      <c r="I12">
-        <v>0.1270215725466124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1509890116957592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08067980927016549</v>
+        <v>0.09047041159231548</v>
       </c>
       <c r="C13">
-        <v>0.1007860016460418</v>
+        <v>0.1050049284416523</v>
       </c>
       <c r="D13">
-        <v>0.1528042070124492</v>
+        <v>0.1657093502450388</v>
       </c>
       <c r="E13">
-        <v>0.1467150367853785</v>
+        <v>0.1671726433383043</v>
       </c>
       <c r="F13">
-        <v>0.2495068794354001</v>
+        <v>0.283688034939942</v>
       </c>
       <c r="G13">
-        <v>0.08244341229520517</v>
+        <v>0.08570026502388936</v>
       </c>
       <c r="H13">
-        <v>0.1005294836765106</v>
-      </c>
-      <c r="I13">
-        <v>0.08653516987884899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1022543664188576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1168953289449963</v>
+        <v>0.1321301865706876</v>
       </c>
       <c r="C14">
-        <v>0.104909528430747</v>
+        <v>0.120600415798283</v>
       </c>
       <c r="D14">
-        <v>0.1449544069393383</v>
+        <v>0.1639043250451347</v>
       </c>
       <c r="E14">
-        <v>0.1278579293080809</v>
+        <v>0.1478374567751592</v>
       </c>
       <c r="F14">
-        <v>0.1196932542425069</v>
+        <v>0.1360575832983183</v>
       </c>
       <c r="G14">
-        <v>0.1565437839991606</v>
+        <v>0.1728912284808331</v>
       </c>
       <c r="H14">
-        <v>0.1111718726745838</v>
-      </c>
-      <c r="I14">
-        <v>0.1179738954605863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1265788040315842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1621976735373548</v>
+        <v>0.1876037723342037</v>
       </c>
       <c r="C15">
-        <v>0.08920111292898027</v>
+        <v>0.10326858856967</v>
       </c>
       <c r="D15">
-        <v>0.1207208603810355</v>
+        <v>0.1379095566585259</v>
       </c>
       <c r="E15">
-        <v>0.1186019545397809</v>
+        <v>0.1435850813747605</v>
       </c>
       <c r="F15">
-        <v>0.1039968076925234</v>
+        <v>0.1132525506138008</v>
       </c>
       <c r="G15">
-        <v>0.0982989827101918</v>
+        <v>0.112549087711876</v>
       </c>
       <c r="H15">
-        <v>0.1774724839642558</v>
-      </c>
-      <c r="I15">
-        <v>0.1295101242458774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.2018313627371632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1016187295941954</v>
+        <v>0.1165585994690816</v>
       </c>
       <c r="C16">
-        <v>0.1099478680735887</v>
+        <v>0.1258139436102716</v>
       </c>
       <c r="D16">
-        <v>0.1133069330136776</v>
+        <v>0.12976379302505</v>
       </c>
       <c r="E16">
-        <v>0.1319395670910691</v>
+        <v>0.1510819093265399</v>
       </c>
       <c r="F16">
-        <v>0.2058314531394056</v>
+        <v>0.2324017280736057</v>
       </c>
       <c r="G16">
-        <v>0.1076112031774804</v>
+        <v>0.1241098975181116</v>
       </c>
       <c r="H16">
-        <v>0.1072191627718318</v>
-      </c>
-      <c r="I16">
-        <v>0.1225250831387514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1202701289773396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09661900005212234</v>
+        <v>0.1093053297388186</v>
       </c>
       <c r="C17">
-        <v>0.1117543991773794</v>
+        <v>0.1308422046022186</v>
       </c>
       <c r="D17">
-        <v>0.1410333487707836</v>
+        <v>0.162674539896251</v>
       </c>
       <c r="E17">
-        <v>0.1313819970748218</v>
+        <v>0.1543727393560502</v>
       </c>
       <c r="F17">
-        <v>0.1804447521115146</v>
+        <v>0.1984640207630553</v>
       </c>
       <c r="G17">
-        <v>0.09727336179694702</v>
+        <v>0.1123464228332115</v>
       </c>
       <c r="H17">
-        <v>0.1187854220335528</v>
-      </c>
-      <c r="I17">
-        <v>0.1227077189828784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1319947428103948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1205341731110013</v>
+        <v>0.1580389332445026</v>
       </c>
       <c r="C18">
-        <v>0.146976617516303</v>
+        <v>0.1853916939270335</v>
       </c>
       <c r="D18">
-        <v>0.09821007441117595</v>
+        <v>0.1226218160508134</v>
       </c>
       <c r="E18">
-        <v>0.1020522143640345</v>
+        <v>0.1169041220173104</v>
       </c>
       <c r="F18">
-        <v>0.05799701484658922</v>
+        <v>0.07250647489271818</v>
       </c>
       <c r="G18">
-        <v>0.1953013868789454</v>
+        <v>0.2212151506874121</v>
       </c>
       <c r="H18">
-        <v>0.1065916414160057</v>
-      </c>
-      <c r="I18">
-        <v>0.1723368774559451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1233218091802098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09133043770953232</v>
+        <v>0.09017043345004287</v>
       </c>
       <c r="C19">
-        <v>0.1263080703855067</v>
+        <v>0.1486587670856293</v>
       </c>
       <c r="D19">
-        <v>0.1414631609768087</v>
+        <v>0.1607400451274418</v>
       </c>
       <c r="E19">
-        <v>0.09583328522744715</v>
+        <v>0.1036183514617537</v>
       </c>
       <c r="F19">
-        <v>0.09170490572836101</v>
+        <v>0.09779768555666757</v>
       </c>
       <c r="G19">
-        <v>0.217721127425643</v>
+        <v>0.2501803708545109</v>
       </c>
       <c r="H19">
-        <v>0.1325619930832738</v>
-      </c>
-      <c r="I19">
-        <v>0.1030770194634274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1488343464639538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1156202783414229</v>
+        <v>0.1380820994599196</v>
       </c>
       <c r="C20">
-        <v>0.1327708830013144</v>
+        <v>0.1517275980330565</v>
       </c>
       <c r="D20">
-        <v>0.1263110984850644</v>
+        <v>0.1418149948908678</v>
       </c>
       <c r="E20">
-        <v>0.1188615322823114</v>
+        <v>0.1359576768818338</v>
       </c>
       <c r="F20">
-        <v>0.1442479800239823</v>
+        <v>0.1619836308156057</v>
       </c>
       <c r="G20">
-        <v>0.1144982610708335</v>
+        <v>0.1360484881621367</v>
       </c>
       <c r="H20">
-        <v>0.1125724196892515</v>
-      </c>
-      <c r="I20">
-        <v>0.1351175471058199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.1343855117565799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1083503376995111</v>
+        <v>0.1048839779903643</v>
       </c>
       <c r="C21">
-        <v>0.08238620545021806</v>
+        <v>0.08940443312652592</v>
       </c>
       <c r="D21">
-        <v>0.2671695593808965</v>
+        <v>0.2879058341194431</v>
       </c>
       <c r="E21">
-        <v>0.1040657009615877</v>
+        <v>0.1104269805847605</v>
       </c>
       <c r="F21">
-        <v>0.2480137469938407</v>
+        <v>0.2777506930215033</v>
       </c>
       <c r="G21">
-        <v>0.05792290673883888</v>
+        <v>0.06209431869017298</v>
       </c>
       <c r="H21">
-        <v>0.0669532202373741</v>
-      </c>
-      <c r="I21">
-        <v>0.06513832253773287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.0675337624672299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.09725938381916664</v>
+        <v>0.1081093785480517</v>
       </c>
       <c r="C22">
-        <v>0.152313420309762</v>
+        <v>0.1643985808236431</v>
       </c>
       <c r="D22">
-        <v>0.14320610742407</v>
+        <v>0.1550321578231299</v>
       </c>
       <c r="E22">
-        <v>0.1221132411469056</v>
+        <v>0.141150010357331</v>
       </c>
       <c r="F22">
-        <v>0.1231100640451141</v>
+        <v>0.1358721643525878</v>
       </c>
       <c r="G22">
-        <v>0.188912462698594</v>
+        <v>0.2087978321139223</v>
       </c>
       <c r="H22">
-        <v>0.07416940302395608</v>
-      </c>
-      <c r="I22">
-        <v>0.09891591753243156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.08663987598133414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1057574503031635</v>
+        <v>0.1257504930925883</v>
       </c>
       <c r="C23">
-        <v>0.1294471671103566</v>
+        <v>0.1539282118778264</v>
       </c>
       <c r="D23">
-        <v>0.109449271068653</v>
+        <v>0.1306505062910323</v>
       </c>
       <c r="E23">
-        <v>0.132084055393989</v>
+        <v>0.1576907800712612</v>
       </c>
       <c r="F23">
-        <v>0.1371972211127422</v>
+        <v>0.1651889703548364</v>
       </c>
       <c r="G23">
-        <v>0.1120173479943737</v>
+        <v>0.1302278183715285</v>
       </c>
       <c r="H23">
-        <v>0.1167455718864588</v>
-      </c>
-      <c r="I23">
-        <v>0.1573019151302633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1365632199409267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.08774745745754942</v>
+        <v>0.09957623219566361</v>
       </c>
       <c r="C24">
-        <v>0.1040279671594983</v>
+        <v>0.1183513602536122</v>
       </c>
       <c r="D24">
-        <v>0.142615272751379</v>
+        <v>0.1636266615797758</v>
       </c>
       <c r="E24">
-        <v>0.1472429610912127</v>
+        <v>0.1715626469340229</v>
       </c>
       <c r="F24">
-        <v>0.2150332496652982</v>
+        <v>0.2369460427607268</v>
       </c>
       <c r="G24">
-        <v>0.08193547954603184</v>
+        <v>0.091531077305119</v>
       </c>
       <c r="H24">
-        <v>0.1075469355023076</v>
-      </c>
-      <c r="I24">
-        <v>0.1138506768267231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1184059789710795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09828678402601779</v>
+        <v>0.1060700405426317</v>
       </c>
       <c r="C25">
-        <v>0.1091711321448746</v>
+        <v>0.1198704141659901</v>
       </c>
       <c r="D25">
-        <v>0.1203815944422822</v>
+        <v>0.1384787381643171</v>
       </c>
       <c r="E25">
-        <v>0.1303832524427508</v>
+        <v>0.1507133614578959</v>
       </c>
       <c r="F25">
-        <v>0.2564857938307952</v>
+        <v>0.2957094047566335</v>
       </c>
       <c r="G25">
-        <v>0.08707889648720583</v>
+        <v>0.09427093532109566</v>
       </c>
       <c r="H25">
-        <v>0.08578933225950849</v>
-      </c>
-      <c r="I25">
-        <v>0.1124232143665652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.09488710559143602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.1384902090308458</v>
+        <v>0.1491300539193537</v>
       </c>
       <c r="C26">
-        <v>0.1131430746889124</v>
+        <v>0.1275838071548063</v>
       </c>
       <c r="D26">
-        <v>0.1350576768851124</v>
+        <v>0.1484796490961518</v>
       </c>
       <c r="E26">
-        <v>0.1094858737975018</v>
+        <v>0.1255818602415948</v>
       </c>
       <c r="F26">
-        <v>0.1043801030254521</v>
+        <v>0.1156469139229234</v>
       </c>
       <c r="G26">
-        <v>0.1398277731732516</v>
+        <v>0.1655674527345059</v>
       </c>
       <c r="H26">
-        <v>0.1493272936558366</v>
-      </c>
-      <c r="I26">
-        <v>0.1102879957430873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.168010262930664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.08260595449131923</v>
+        <v>0.08916147157554311</v>
       </c>
       <c r="C27">
-        <v>0.1173555132714157</v>
+        <v>0.1344701963696149</v>
       </c>
       <c r="D27">
-        <v>0.1454755064714164</v>
+        <v>0.1631666002515309</v>
       </c>
       <c r="E27">
-        <v>0.1392113453691498</v>
+        <v>0.1585781873524897</v>
       </c>
       <c r="F27">
-        <v>0.245337710666925</v>
+        <v>0.2688338282640539</v>
       </c>
       <c r="G27">
-        <v>0.08079737777890512</v>
+        <v>0.08908939821430732</v>
       </c>
       <c r="H27">
-        <v>0.08838618254798397</v>
-      </c>
-      <c r="I27">
-        <v>0.1008304094028846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.09670031797246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.09383353854655176</v>
+        <v>0.1097449129308638</v>
       </c>
       <c r="C28">
-        <v>0.1249836640032388</v>
+        <v>0.1472394280409269</v>
       </c>
       <c r="D28">
-        <v>0.1337360207608457</v>
+        <v>0.1535631322900053</v>
       </c>
       <c r="E28">
-        <v>0.1241199433746523</v>
+        <v>0.1410206554010232</v>
       </c>
       <c r="F28">
-        <v>0.2156246756913364</v>
+        <v>0.2429682527695486</v>
       </c>
       <c r="G28">
-        <v>0.0910097784623308</v>
+        <v>0.1041393258917995</v>
       </c>
       <c r="H28">
-        <v>0.09093683337625282</v>
-      </c>
-      <c r="I28">
-        <v>0.1257555457847914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1013242926758326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.07538789148467567</v>
+        <v>0.08712146488169525</v>
       </c>
       <c r="C29">
-        <v>0.1109965265856043</v>
+        <v>0.1240715155191114</v>
       </c>
       <c r="D29">
-        <v>0.1157593607529507</v>
+        <v>0.1369807797316202</v>
       </c>
       <c r="E29">
-        <v>0.130727488493821</v>
+        <v>0.1521165382766434</v>
       </c>
       <c r="F29">
-        <v>0.254383848453581</v>
+        <v>0.3002993635469054</v>
       </c>
       <c r="G29">
-        <v>0.08277101084307435</v>
+        <v>0.08787776235035316</v>
       </c>
       <c r="H29">
-        <v>0.09740342366895521</v>
-      </c>
-      <c r="I29">
-        <v>0.1325704497173379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1115325756936713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1069266738998721</v>
+        <v>0.1230049552001084</v>
       </c>
       <c r="C30">
-        <v>0.1263718981325088</v>
+        <v>0.1452596838218987</v>
       </c>
       <c r="D30">
-        <v>0.1224929155754826</v>
+        <v>0.1444523341328149</v>
       </c>
       <c r="E30">
-        <v>0.1250583656867536</v>
+        <v>0.1450182026158365</v>
       </c>
       <c r="F30">
-        <v>0.1599287062389443</v>
+        <v>0.1808637670759866</v>
       </c>
       <c r="G30">
-        <v>0.1144409618848196</v>
+        <v>0.1316794284041688</v>
       </c>
       <c r="H30">
-        <v>0.1119943567229405</v>
-      </c>
-      <c r="I30">
-        <v>0.1327861218586784</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1297216287491861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1028725999783698</v>
+        <v>0.1172897427675432</v>
       </c>
       <c r="C31">
-        <v>0.1261951792148594</v>
+        <v>0.1473970659286969</v>
       </c>
       <c r="D31">
-        <v>0.1209450796129605</v>
+        <v>0.1439773263651133</v>
       </c>
       <c r="E31">
-        <v>0.13034026564624</v>
+        <v>0.1506622325437871</v>
       </c>
       <c r="F31">
-        <v>0.1765629556368082</v>
+        <v>0.1954473524723584</v>
       </c>
       <c r="G31">
-        <v>0.1038486232505648</v>
+        <v>0.1195457723811748</v>
       </c>
       <c r="H31">
-        <v>0.1111754071670972</v>
-      </c>
-      <c r="I31">
-        <v>0.1280598894931</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1256805075413263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1676611644805081</v>
+        <v>0.1983487250871121</v>
       </c>
       <c r="C32">
-        <v>0.09810797071138296</v>
+        <v>0.105755363734949</v>
       </c>
       <c r="D32">
-        <v>0.09914183453640323</v>
+        <v>0.1126170001122736</v>
       </c>
       <c r="E32">
-        <v>0.1565577237486647</v>
+        <v>0.17755591101615</v>
       </c>
       <c r="F32">
-        <v>0.05306544639697396</v>
+        <v>0.05450605023732188</v>
       </c>
       <c r="G32">
-        <v>0.1930761583310081</v>
+        <v>0.2092111535097313</v>
       </c>
       <c r="H32">
-        <v>0.1248113159153931</v>
-      </c>
-      <c r="I32">
-        <v>0.107578385879666</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1420057963024622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1024422091327924</v>
+        <v>0.1158841417981839</v>
       </c>
       <c r="C33">
-        <v>0.1066497837840066</v>
+        <v>0.1228590012681907</v>
       </c>
       <c r="D33">
-        <v>0.1316036425868437</v>
+        <v>0.1474299414581428</v>
       </c>
       <c r="E33">
-        <v>0.1221104539644904</v>
+        <v>0.1359750355426094</v>
       </c>
       <c r="F33">
-        <v>0.2238810899565885</v>
+        <v>0.2519888348902273</v>
       </c>
       <c r="G33">
-        <v>0.1030317683557176</v>
+        <v>0.1178393225039695</v>
       </c>
       <c r="H33">
-        <v>0.0954723647578678</v>
-      </c>
-      <c r="I33">
-        <v>0.114808687461693</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1080237225386763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1252325589996148</v>
+        <v>0.1389211440306098</v>
       </c>
       <c r="C34">
-        <v>0.1206387351315873</v>
+        <v>0.1370845628876427</v>
       </c>
       <c r="D34">
-        <v>0.1234808156656899</v>
+        <v>0.1421925570864271</v>
       </c>
       <c r="E34">
-        <v>0.1276126387604764</v>
+        <v>0.1467573617374513</v>
       </c>
       <c r="F34">
-        <v>0.1248898284698913</v>
+        <v>0.1426675515667654</v>
       </c>
       <c r="G34">
-        <v>0.131249936552979</v>
+        <v>0.1515781138163433</v>
       </c>
       <c r="H34">
-        <v>0.1258942358160604</v>
-      </c>
-      <c r="I34">
-        <v>0.1210012506037009</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1407987088747602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1241896742018102</v>
+        <v>0.139739873751143</v>
       </c>
       <c r="C35">
-        <v>0.1345742459945442</v>
+        <v>0.1553617102287848</v>
       </c>
       <c r="D35">
-        <v>0.1227444742828234</v>
+        <v>0.1439986876815461</v>
       </c>
       <c r="E35">
-        <v>0.1108295309765212</v>
+        <v>0.1334360826525601</v>
       </c>
       <c r="F35">
-        <v>0.08572034377988612</v>
+        <v>0.102620031753396</v>
       </c>
       <c r="G35">
-        <v>0.1423049389107976</v>
+        <v>0.1668584341447156</v>
       </c>
       <c r="H35">
-        <v>0.1332220393670823</v>
-      </c>
-      <c r="I35">
-        <v>0.146414752486535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1579851797878545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.09365493849034301</v>
+        <v>0.1023213693293814</v>
       </c>
       <c r="C36">
-        <v>0.1092713904046053</v>
+        <v>0.1212512507864158</v>
       </c>
       <c r="D36">
-        <v>0.1075654520140281</v>
+        <v>0.114109865439423</v>
       </c>
       <c r="E36">
-        <v>0.1558718520279155</v>
+        <v>0.1751411731136532</v>
       </c>
       <c r="F36">
-        <v>0.05956444553434475</v>
+        <v>0.05867258417872293</v>
       </c>
       <c r="G36">
-        <v>0.3109319231322137</v>
+        <v>0.332206131478069</v>
       </c>
       <c r="H36">
-        <v>0.08723021561315865</v>
-      </c>
-      <c r="I36">
-        <v>0.07590978278339101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.09629762567433477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.09208032519054955</v>
+        <v>0.1073241496178937</v>
       </c>
       <c r="C37">
-        <v>0.1113518608046693</v>
+        <v>0.1311187273617918</v>
       </c>
       <c r="D37">
-        <v>0.1146585058576369</v>
+        <v>0.1312003309628418</v>
       </c>
       <c r="E37">
-        <v>0.1219516892439986</v>
+        <v>0.1393403887762867</v>
       </c>
       <c r="F37">
-        <v>0.2285643962484722</v>
+        <v>0.2601514535776827</v>
       </c>
       <c r="G37">
-        <v>0.1015929819527138</v>
+        <v>0.1147475330572632</v>
       </c>
       <c r="H37">
-        <v>0.1030496862229342</v>
-      </c>
-      <c r="I37">
-        <v>0.1267505544790255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1161174166462402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1008986722682204</v>
+        <v>0.1119929201850185</v>
       </c>
       <c r="C38">
-        <v>0.1286667041441548</v>
+        <v>0.1459073380089925</v>
       </c>
       <c r="D38">
-        <v>0.1290651943416314</v>
+        <v>0.1460487840234229</v>
       </c>
       <c r="E38">
-        <v>0.1349534175990523</v>
+        <v>0.1540537624022494</v>
       </c>
       <c r="F38">
-        <v>0.1591239736104292</v>
+        <v>0.1839422282146851</v>
       </c>
       <c r="G38">
-        <v>0.1300046894894362</v>
+        <v>0.1463142803809693</v>
       </c>
       <c r="H38">
-        <v>0.1018509473889014</v>
-      </c>
-      <c r="I38">
-        <v>0.1154364011581743</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1117406867846622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1153331654629733</v>
+        <v>0.1315190068823936</v>
       </c>
       <c r="C39">
-        <v>0.1330661578703236</v>
+        <v>0.1520720697046817</v>
       </c>
       <c r="D39">
-        <v>0.1223760954815169</v>
+        <v>0.1378012846350681</v>
       </c>
       <c r="E39">
-        <v>0.127000432208717</v>
+        <v>0.1435399441846368</v>
       </c>
       <c r="F39">
-        <v>0.1315570785151504</v>
+        <v>0.1532407847192999</v>
       </c>
       <c r="G39">
-        <v>0.1254563430505341</v>
+        <v>0.1451273402299151</v>
       </c>
       <c r="H39">
-        <v>0.1179584005702805</v>
-      </c>
-      <c r="I39">
-        <v>0.1272523268405041</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.1366995696440047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1090357322858414</v>
+        <v>0.1231176187248514</v>
       </c>
       <c r="C40">
-        <v>0.1292033665170998</v>
+        <v>0.1476300265344165</v>
       </c>
       <c r="D40">
-        <v>0.1193236617815421</v>
+        <v>0.1368289624657581</v>
       </c>
       <c r="E40">
-        <v>0.1350531156400522</v>
+        <v>0.1578016411618508</v>
       </c>
       <c r="F40">
-        <v>0.1301824861484018</v>
+        <v>0.1548204510955007</v>
       </c>
       <c r="G40">
-        <v>0.1316378548705857</v>
+        <v>0.148579374690883</v>
       </c>
       <c r="H40">
-        <v>0.1130987781153142</v>
-      </c>
-      <c r="I40">
-        <v>0.1324650046411629</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1312219253267395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1089700633644841</v>
+        <v>0.1239238711151712</v>
       </c>
       <c r="C41">
-        <v>0.1258941525862508</v>
+        <v>0.142756063110052</v>
       </c>
       <c r="D41">
-        <v>0.1011665827208841</v>
+        <v>0.1137728190143318</v>
       </c>
       <c r="E41">
-        <v>0.1273254918209737</v>
+        <v>0.1463879557735612</v>
       </c>
       <c r="F41">
-        <v>0.1952915925856084</v>
+        <v>0.227870681634015</v>
       </c>
       <c r="G41">
-        <v>0.1121729950208348</v>
+        <v>0.1240491517114949</v>
       </c>
       <c r="H41">
-        <v>0.1061672480580674</v>
-      </c>
-      <c r="I41">
-        <v>0.1230118738428967</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1212394576413738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.09701036857763351</v>
+        <v>0.1085833094333282</v>
       </c>
       <c r="C42">
-        <v>0.1312604205643403</v>
+        <v>0.1511648978256089</v>
       </c>
       <c r="D42">
-        <v>0.1295032807443246</v>
+        <v>0.1517070209966712</v>
       </c>
       <c r="E42">
-        <v>0.1310463591909605</v>
+        <v>0.1535968177183794</v>
       </c>
       <c r="F42">
-        <v>0.1890950256052698</v>
+        <v>0.200036349466002</v>
       </c>
       <c r="G42">
-        <v>0.09163984921518847</v>
+        <v>0.1059005391804469</v>
       </c>
       <c r="H42">
-        <v>0.1162501048002282</v>
-      </c>
-      <c r="I42">
-        <v>0.1141945913020546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1290110653795634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.09949195648485641</v>
+        <v>0.1134567331716379</v>
       </c>
       <c r="C43">
-        <v>0.115212760835011</v>
+        <v>0.1382071132886076</v>
       </c>
       <c r="D43">
-        <v>0.1202898080101445</v>
+        <v>0.1392969655541735</v>
       </c>
       <c r="E43">
-        <v>0.1207775930682859</v>
+        <v>0.1389672070396392</v>
       </c>
       <c r="F43">
-        <v>0.2181875993759096</v>
+        <v>0.2476832025575133</v>
       </c>
       <c r="G43">
-        <v>0.08695356504256019</v>
+        <v>0.09822459475191973</v>
       </c>
       <c r="H43">
-        <v>0.1095194615784765</v>
-      </c>
-      <c r="I43">
-        <v>0.1295672556047558</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.1241641836365087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.108149519183724</v>
+        <v>0.1274171626219006</v>
       </c>
       <c r="C44">
-        <v>0.1358997361842738</v>
+        <v>0.147327650960731</v>
       </c>
       <c r="D44">
-        <v>0.1277651868001983</v>
+        <v>0.1395459676905336</v>
       </c>
       <c r="E44">
-        <v>0.1119310105406395</v>
+        <v>0.1291503035213706</v>
       </c>
       <c r="F44">
-        <v>0.1198181191841675</v>
+        <v>0.1269122671399078</v>
       </c>
       <c r="G44">
-        <v>0.1508817902326135</v>
+        <v>0.1839398738523551</v>
       </c>
       <c r="H44">
-        <v>0.12713842234677</v>
-      </c>
-      <c r="I44">
-        <v>0.1184162155276135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1457067742132015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.07900310020969316</v>
+        <v>0.09004292744952892</v>
       </c>
       <c r="C45">
-        <v>0.1166360143977354</v>
+        <v>0.1359300073481611</v>
       </c>
       <c r="D45">
-        <v>0.09964002113932348</v>
+        <v>0.1131408832907421</v>
       </c>
       <c r="E45">
-        <v>0.1388676242568518</v>
+        <v>0.1605934805089916</v>
       </c>
       <c r="F45">
-        <v>0.2433882441700738</v>
+        <v>0.266889378528593</v>
       </c>
       <c r="G45">
-        <v>0.1100658748319932</v>
+        <v>0.1183495882808903</v>
       </c>
       <c r="H45">
-        <v>0.1021491869211828</v>
-      </c>
-      <c r="I45">
-        <v>0.1102499340731463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1150537345930929</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1009563921192502</v>
+        <v>0.1148614019529985</v>
       </c>
       <c r="C46">
-        <v>0.1233849117279999</v>
+        <v>0.1421467177725166</v>
       </c>
       <c r="D46">
-        <v>0.1010715849211712</v>
+        <v>0.1181146613045372</v>
       </c>
       <c r="E46">
-        <v>0.1039342505743879</v>
+        <v>0.1181215839602157</v>
       </c>
       <c r="F46">
-        <v>0.2214728774603087</v>
+        <v>0.2516639205413949</v>
       </c>
       <c r="G46">
-        <v>0.09187742743879761</v>
+        <v>0.1056682704819358</v>
       </c>
       <c r="H46">
-        <v>0.1374901412648625</v>
-      </c>
-      <c r="I46">
-        <v>0.1198124144932219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1494234439864014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1325395150907609</v>
+        <v>0.1598052534584714</v>
       </c>
       <c r="C47">
-        <v>0.1367999673580897</v>
+        <v>0.1607736990505066</v>
       </c>
       <c r="D47">
-        <v>0.1250081123590187</v>
+        <v>0.1390062638252118</v>
       </c>
       <c r="E47">
-        <v>0.1210865409409033</v>
+        <v>0.1330662535089499</v>
       </c>
       <c r="F47">
-        <v>0.1114668243579995</v>
+        <v>0.1203735551480075</v>
       </c>
       <c r="G47">
-        <v>0.1375080572852416</v>
+        <v>0.1639747929174144</v>
       </c>
       <c r="H47">
-        <v>0.1114729559875305</v>
-      </c>
-      <c r="I47">
-        <v>0.1241180266204558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1230001820914383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.09625635040499494</v>
+        <v>0.1075289937002188</v>
       </c>
       <c r="C48">
-        <v>0.1180666283494388</v>
+        <v>0.1343290976275146</v>
       </c>
       <c r="D48">
-        <v>0.1303613016253603</v>
+        <v>0.1494314152435618</v>
       </c>
       <c r="E48">
-        <v>0.1345076523038617</v>
+        <v>0.1555305959844585</v>
       </c>
       <c r="F48">
-        <v>0.1776464386196397</v>
+        <v>0.2087791936916105</v>
       </c>
       <c r="G48">
-        <v>0.1152750057703219</v>
+        <v>0.1285982852814817</v>
       </c>
       <c r="H48">
-        <v>0.1003429955110953</v>
-      </c>
-      <c r="I48">
-        <v>0.1275436274152873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1158024184711539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1467815994764618</v>
+        <v>0.2048643053658531</v>
       </c>
       <c r="C49">
-        <v>0.09753742090109287</v>
+        <v>0.09508982003721803</v>
       </c>
       <c r="D49">
-        <v>0.1202528586985264</v>
+        <v>0.1304739491243036</v>
       </c>
       <c r="E49">
-        <v>0.1249800172945897</v>
+        <v>0.1487420427525991</v>
       </c>
       <c r="F49">
-        <v>0.04260211010947637</v>
+        <v>0.03477584174527775</v>
       </c>
       <c r="G49">
-        <v>0.2182440977495301</v>
+        <v>0.249439248592277</v>
       </c>
       <c r="H49">
-        <v>0.106910964597191</v>
-      </c>
-      <c r="I49">
-        <v>0.1426909311731318</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1366147923824712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1584005821441006</v>
+        <v>0.1921062955438449</v>
       </c>
       <c r="C50">
-        <v>0.1022748321478889</v>
+        <v>0.1207297740909058</v>
       </c>
       <c r="D50">
-        <v>0.1018303499721483</v>
+        <v>0.1226234447505421</v>
       </c>
       <c r="E50">
-        <v>0.1274684076898397</v>
+        <v>0.1510760861579517</v>
       </c>
       <c r="F50">
-        <v>0.0640280426705757</v>
+        <v>0.07475553398834912</v>
       </c>
       <c r="G50">
-        <v>0.1588303621872514</v>
+        <v>0.1853223295527659</v>
       </c>
       <c r="H50">
-        <v>0.126805464129794</v>
-      </c>
-      <c r="I50">
-        <v>0.1603619590584014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1533865359156405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1059068136022514</v>
+        <v>0.1201118123122854</v>
       </c>
       <c r="C51">
-        <v>0.1229728717134613</v>
+        <v>0.1429477711976457</v>
       </c>
       <c r="D51">
-        <v>0.1213286425296761</v>
+        <v>0.1369541931983322</v>
       </c>
       <c r="E51">
-        <v>0.1290842189828999</v>
+        <v>0.1453327834875718</v>
       </c>
       <c r="F51">
-        <v>0.2291758215163792</v>
+        <v>0.2523045418048839</v>
       </c>
       <c r="G51">
-        <v>0.0812538893036341</v>
+        <v>0.09245488484371299</v>
       </c>
       <c r="H51">
-        <v>0.09509637715050887</v>
-      </c>
-      <c r="I51">
-        <v>0.1151813652011892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1098940131555682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.09877897205975261</v>
+        <v>0.1122501757214654</v>
       </c>
       <c r="C52">
-        <v>0.1215727221478888</v>
+        <v>0.1348827509851159</v>
       </c>
       <c r="D52">
-        <v>0.1312196781910338</v>
+        <v>0.1471868650891278</v>
       </c>
       <c r="E52">
-        <v>0.1218792924196904</v>
+        <v>0.1360567757594341</v>
       </c>
       <c r="F52">
-        <v>0.2265580847647183</v>
+        <v>0.2505619477312401</v>
       </c>
       <c r="G52">
-        <v>0.09670567437381754</v>
+        <v>0.1090580054632743</v>
       </c>
       <c r="H52">
-        <v>0.09391719978867158</v>
-      </c>
-      <c r="I52">
-        <v>0.1093683762544271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.1100034792503423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1139919111296025</v>
+        <v>0.1296316229941466</v>
       </c>
       <c r="C53">
-        <v>0.1066969197597949</v>
+        <v>0.1256532703250795</v>
       </c>
       <c r="D53">
-        <v>0.1277913331612524</v>
+        <v>0.1493123449962714</v>
       </c>
       <c r="E53">
-        <v>0.1183229094431474</v>
+        <v>0.1312653468046087</v>
       </c>
       <c r="F53">
-        <v>0.2199668765493463</v>
+        <v>0.2475293784271146</v>
       </c>
       <c r="G53">
-        <v>0.09853606563277663</v>
+        <v>0.1064906436702624</v>
       </c>
       <c r="H53">
-        <v>0.09697435151627939</v>
-      </c>
-      <c r="I53">
-        <v>0.1177196328078005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1101173927825167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.09919804196530788</v>
+        <v>0.1094147796760755</v>
       </c>
       <c r="C54">
-        <v>0.1558032412867127</v>
+        <v>0.1788826725273885</v>
       </c>
       <c r="D54">
-        <v>0.1550463277051546</v>
+        <v>0.1783561615806422</v>
       </c>
       <c r="E54">
-        <v>0.1277428613690087</v>
+        <v>0.1396108806282887</v>
       </c>
       <c r="F54">
-        <v>0.109937922873621</v>
+        <v>0.1247013972993079</v>
       </c>
       <c r="G54">
-        <v>0.1325545176986077</v>
+        <v>0.1513835119257801</v>
       </c>
       <c r="H54">
-        <v>0.1037219392090439</v>
-      </c>
-      <c r="I54">
-        <v>0.1159951478925436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1176505963625171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1306073807871599</v>
+        <v>0.1421913278368139</v>
       </c>
       <c r="C55">
-        <v>0.1284684347242753</v>
+        <v>0.1449557769380261</v>
       </c>
       <c r="D55">
-        <v>0.1045173309574764</v>
+        <v>0.1185843742155047</v>
       </c>
       <c r="E55">
-        <v>0.1076601763948181</v>
+        <v>0.1238806336259879</v>
       </c>
       <c r="F55">
-        <v>0.102296475358692</v>
+        <v>0.1111168477137354</v>
       </c>
       <c r="G55">
-        <v>0.1670675964009676</v>
+        <v>0.1970040583809313</v>
       </c>
       <c r="H55">
-        <v>0.1439498537122508</v>
-      </c>
-      <c r="I55">
-        <v>0.1154327516643598</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1622669812890006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1076619270577054</v>
+        <v>0.1227484442842218</v>
       </c>
       <c r="C56">
-        <v>0.1537934620935603</v>
+        <v>0.1731368647436054</v>
       </c>
       <c r="D56">
-        <v>0.1188866615792373</v>
+        <v>0.1349700477704454</v>
       </c>
       <c r="E56">
-        <v>0.112169895127462</v>
+        <v>0.1332099671152731</v>
       </c>
       <c r="F56">
-        <v>0.1883578016103537</v>
+        <v>0.2098222367089859</v>
       </c>
       <c r="G56">
-        <v>0.07814305555080928</v>
+        <v>0.09511052420951548</v>
       </c>
       <c r="H56">
-        <v>0.1132047987428525</v>
-      </c>
-      <c r="I56">
-        <v>0.1277823982380195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1310019151679528</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1004733484458323</v>
+        <v>0.1145480803374498</v>
       </c>
       <c r="C57">
-        <v>0.1531191639044339</v>
+        <v>0.1594528522156345</v>
       </c>
       <c r="D57">
-        <v>0.1328915559778411</v>
+        <v>0.1504535759275399</v>
       </c>
       <c r="E57">
-        <v>0.09997575423145495</v>
+        <v>0.1199636741442007</v>
       </c>
       <c r="F57">
-        <v>0.1252218284788272</v>
+        <v>0.1371709426929861</v>
       </c>
       <c r="G57">
-        <v>0.1690000006616132</v>
+        <v>0.193123745639288</v>
       </c>
       <c r="H57">
-        <v>0.1091444465037831</v>
-      </c>
-      <c r="I57">
-        <v>0.1101739017962143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.125287129042901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1144745526481619</v>
+        <v>0.1336141168248365</v>
       </c>
       <c r="C58">
-        <v>0.1414627241718903</v>
+        <v>0.164463478600839</v>
       </c>
       <c r="D58">
-        <v>0.1209230446664531</v>
+        <v>0.1451471076286108</v>
       </c>
       <c r="E58">
-        <v>0.109927338147785</v>
+        <v>0.1289822011197188</v>
       </c>
       <c r="F58">
-        <v>0.06959880379934603</v>
+        <v>0.08514236758721341</v>
       </c>
       <c r="G58">
-        <v>0.1634006696202837</v>
+        <v>0.1844069052432074</v>
       </c>
       <c r="H58">
-        <v>0.1383771274504988</v>
-      </c>
-      <c r="I58">
-        <v>0.1418357394955812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1582438229955743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1318419957140671</v>
+        <v>0.1501416951630476</v>
       </c>
       <c r="C59">
-        <v>0.1433625999457516</v>
+        <v>0.1650514550470684</v>
       </c>
       <c r="D59">
-        <v>0.1171004621904538</v>
+        <v>0.1368801102130599</v>
       </c>
       <c r="E59">
-        <v>0.1110609917665517</v>
+        <v>0.1303994292302513</v>
       </c>
       <c r="F59">
-        <v>0.09295937561538352</v>
+        <v>0.1078206415725282</v>
       </c>
       <c r="G59">
-        <v>0.1409598850956579</v>
+        <v>0.1626249115946025</v>
       </c>
       <c r="H59">
-        <v>0.1264567803162205</v>
-      </c>
-      <c r="I59">
-        <v>0.136257909355914</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.147081757179442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1413800213268725</v>
+        <v>0.1666657437760817</v>
       </c>
       <c r="C60">
-        <v>0.09450529376357411</v>
+        <v>0.1114070574608964</v>
       </c>
       <c r="D60">
-        <v>0.149381117286204</v>
+        <v>0.1760979504750133</v>
       </c>
       <c r="E60">
-        <v>0.1462631786340161</v>
+        <v>0.1724223222574134</v>
       </c>
       <c r="F60">
-        <v>0.04965319325358011</v>
+        <v>0.06030696039850349</v>
       </c>
       <c r="G60">
-        <v>0.1874014496538463</v>
+        <v>0.2209189402357704</v>
       </c>
       <c r="H60">
-        <v>0.07819618604409766</v>
-      </c>
-      <c r="I60">
-        <v>0.1532195600378091</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.09218102539632143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1692518837249315</v>
+        <v>0.1894748716418339</v>
       </c>
       <c r="C61">
-        <v>0.1070550772746873</v>
+        <v>0.1248317495205899</v>
       </c>
       <c r="D61">
-        <v>0.1193479669627911</v>
+        <v>0.1390672717920499</v>
       </c>
       <c r="E61">
-        <v>0.1036130971961482</v>
+        <v>0.117308152423824</v>
       </c>
       <c r="F61">
-        <v>0.1149865008326514</v>
+        <v>0.1277180290346667</v>
       </c>
       <c r="G61">
-        <v>0.1443177816622503</v>
+        <v>0.1559954353042979</v>
       </c>
       <c r="H61">
-        <v>0.126848297478142</v>
-      </c>
-      <c r="I61">
-        <v>0.1145793948683981</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1456044902827375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.113550964537558</v>
+        <v>0.132357540582788</v>
       </c>
       <c r="C62">
-        <v>0.1269119643945065</v>
+        <v>0.1433603439384558</v>
       </c>
       <c r="D62">
-        <v>0.1370887656884036</v>
+        <v>0.156253194069483</v>
       </c>
       <c r="E62">
-        <v>0.1263025143744269</v>
+        <v>0.1455990766105494</v>
       </c>
       <c r="F62">
-        <v>0.1376735670523457</v>
+        <v>0.159020923502415</v>
       </c>
       <c r="G62">
-        <v>0.1147176006393235</v>
+        <v>0.1332188096540891</v>
       </c>
       <c r="H62">
-        <v>0.114003698553856</v>
-      </c>
-      <c r="I62">
-        <v>0.1297509247595799</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1301901116422196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09026189820331339</v>
+        <v>0.0993387536563559</v>
       </c>
       <c r="C63">
-        <v>0.1503417619199052</v>
+        <v>0.1732538952367861</v>
       </c>
       <c r="D63">
-        <v>0.1136015018562013</v>
+        <v>0.1212395563704598</v>
       </c>
       <c r="E63">
-        <v>0.0930274275885915</v>
+        <v>0.1060315140019214</v>
       </c>
       <c r="F63">
-        <v>0.2642280980082671</v>
+        <v>0.3124635255077555</v>
       </c>
       <c r="G63">
-        <v>0.0774100582367912</v>
+        <v>0.08710599369383104</v>
       </c>
       <c r="H63">
-        <v>0.09369663195944054</v>
-      </c>
-      <c r="I63">
-        <v>0.1174326222274898</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1005667615328903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09733721197228035</v>
+        <v>0.1114094150908973</v>
       </c>
       <c r="C64">
-        <v>0.140678285491473</v>
+        <v>0.1557821472781973</v>
       </c>
       <c r="D64">
-        <v>0.1779299098956617</v>
+        <v>0.1885128241093734</v>
       </c>
       <c r="E64">
-        <v>0.1092882143154151</v>
+        <v>0.1209360167078593</v>
       </c>
       <c r="F64">
-        <v>0.1329783574020975</v>
+        <v>0.1412837836906657</v>
       </c>
       <c r="G64">
-        <v>0.1549608781640544</v>
+        <v>0.1756522428394005</v>
       </c>
       <c r="H64">
-        <v>0.09599667239580714</v>
-      </c>
-      <c r="I64">
-        <v>0.09083047036321068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1064235702836065</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1277945537689892</v>
+        <v>0.1380496434972276</v>
       </c>
       <c r="C65">
-        <v>0.1162094424895269</v>
+        <v>0.1318356179098352</v>
       </c>
       <c r="D65">
-        <v>0.1268751410776604</v>
+        <v>0.1462741970699258</v>
       </c>
       <c r="E65">
-        <v>0.1257510974535511</v>
+        <v>0.1465978856909692</v>
       </c>
       <c r="F65">
-        <v>0.1127844100356865</v>
+        <v>0.1271128659690294</v>
       </c>
       <c r="G65">
-        <v>0.1487785741103816</v>
+        <v>0.1676873354784997</v>
       </c>
       <c r="H65">
-        <v>0.1259981671505999</v>
-      </c>
-      <c r="I65">
-        <v>0.1158086139136043</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1424424543845131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1390784225846161</v>
+        <v>0.1598499945865941</v>
       </c>
       <c r="C66">
-        <v>0.09472285404741861</v>
+        <v>0.1097084573411673</v>
       </c>
       <c r="D66">
-        <v>0.1530877348185534</v>
+        <v>0.1672720013717837</v>
       </c>
       <c r="E66">
-        <v>0.1274675304159227</v>
+        <v>0.1417631537480852</v>
       </c>
       <c r="F66">
-        <v>0.09975237234993345</v>
+        <v>0.1025789789962279</v>
       </c>
       <c r="G66">
-        <v>0.1448155309040483</v>
+        <v>0.1619616818646352</v>
       </c>
       <c r="H66">
-        <v>0.1363086686377595</v>
-      </c>
-      <c r="I66">
-        <v>0.104766886241748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1568657320915066</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.09378249499055544</v>
+        <v>0.1099366001750774</v>
       </c>
       <c r="C67">
-        <v>0.1694936032237059</v>
+        <v>0.1916173564229239</v>
       </c>
       <c r="D67">
-        <v>0.09475440092611137</v>
+        <v>0.1091965980689537</v>
       </c>
       <c r="E67">
-        <v>0.1208948387418191</v>
+        <v>0.1375629859263228</v>
       </c>
       <c r="F67">
-        <v>0.2210026958275287</v>
+        <v>0.239732547377665</v>
       </c>
       <c r="G67">
-        <v>0.06719083311313187</v>
+        <v>0.07518521468602252</v>
       </c>
       <c r="H67">
-        <v>0.1228317748954404</v>
-      </c>
-      <c r="I67">
-        <v>0.1100493582817073</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1367686973430347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1890949984037271</v>
+        <v>0.2108572530518787</v>
       </c>
       <c r="C68">
-        <v>0.1029829161805031</v>
+        <v>0.1198959457677305</v>
       </c>
       <c r="D68">
-        <v>0.09401413275715265</v>
+        <v>0.1045130863198741</v>
       </c>
       <c r="E68">
-        <v>0.1181967937594531</v>
+        <v>0.1250861936761434</v>
       </c>
       <c r="F68">
-        <v>0.133910796090641</v>
+        <v>0.141226636185477</v>
       </c>
       <c r="G68">
-        <v>0.1044609693461424</v>
+        <v>0.1206567085015564</v>
       </c>
       <c r="H68">
-        <v>0.1539231917227067</v>
-      </c>
-      <c r="I68">
-        <v>0.103416201739674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1777641764973399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1295341880813347</v>
+        <v>0.1484598386318843</v>
       </c>
       <c r="C69">
-        <v>0.1279398459674067</v>
+        <v>0.1446587210453851</v>
       </c>
       <c r="D69">
-        <v>0.1214864771847951</v>
+        <v>0.1386155839988261</v>
       </c>
       <c r="E69">
-        <v>0.1132396775322333</v>
+        <v>0.1303996376426874</v>
       </c>
       <c r="F69">
-        <v>0.1214284152332535</v>
+        <v>0.1382119663422772</v>
       </c>
       <c r="G69">
-        <v>0.1239442981071145</v>
+        <v>0.1454017071157784</v>
       </c>
       <c r="H69">
-        <v>0.1333048036710408</v>
-      </c>
-      <c r="I69">
-        <v>0.1291222942228214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1542525452231614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1311465148610807</v>
+        <v>0.1523214450143595</v>
       </c>
       <c r="C70">
-        <v>0.1569728835607549</v>
+        <v>0.1849042959657565</v>
       </c>
       <c r="D70">
-        <v>0.1101002430787229</v>
+        <v>0.1321419141752679</v>
       </c>
       <c r="E70">
-        <v>0.1005878210924503</v>
+        <v>0.1186859753210992</v>
       </c>
       <c r="F70">
-        <v>0.07272968273491168</v>
+        <v>0.08742071791879717</v>
       </c>
       <c r="G70">
-        <v>0.1351751483570738</v>
+        <v>0.1594424250405427</v>
       </c>
       <c r="H70">
-        <v>0.1418752149087621</v>
-      </c>
-      <c r="I70">
-        <v>0.1514124914062435</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.165083226564177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1230966593615033</v>
+        <v>0.1398973813193439</v>
       </c>
       <c r="C71">
-        <v>0.1322334011013362</v>
+        <v>0.1616772379921118</v>
       </c>
       <c r="D71">
-        <v>0.1138562242014839</v>
+        <v>0.1453472547416713</v>
       </c>
       <c r="E71">
-        <v>0.1280805059954383</v>
+        <v>0.15205425931599</v>
       </c>
       <c r="F71">
-        <v>0.1261432744353705</v>
+        <v>0.1540936605882345</v>
       </c>
       <c r="G71">
-        <v>0.1115769871112227</v>
+        <v>0.1402758483182064</v>
       </c>
       <c r="H71">
-        <v>0.09428996279532249</v>
-      </c>
-      <c r="I71">
-        <v>0.1707229849983227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1066543577244421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.2240043993462003</v>
+        <v>0.2622759880456387</v>
       </c>
       <c r="C72">
-        <v>0.06901407822470641</v>
+        <v>0.07957209072789358</v>
       </c>
       <c r="D72">
-        <v>0.1041811991204839</v>
+        <v>0.1193231910204781</v>
       </c>
       <c r="E72">
-        <v>0.09338440383473647</v>
+        <v>0.09572945416838109</v>
       </c>
       <c r="F72">
-        <v>0.1030889718804211</v>
+        <v>0.1150717286466423</v>
       </c>
       <c r="G72">
-        <v>0.1249343627375757</v>
+        <v>0.169690964473849</v>
       </c>
       <c r="H72">
-        <v>0.1391190167614902</v>
-      </c>
-      <c r="I72">
-        <v>0.1422735680943857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1583365829171172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.1064543085427245</v>
+        <v>0.126531903055022</v>
       </c>
       <c r="C73">
-        <v>0.1347926213474042</v>
+        <v>0.159557838726497</v>
       </c>
       <c r="D73">
-        <v>0.08115584316157265</v>
+        <v>0.09155476709717915</v>
       </c>
       <c r="E73">
-        <v>0.1130535731147103</v>
+        <v>0.1276161557857927</v>
       </c>
       <c r="F73">
-        <v>0.2234636588085602</v>
+        <v>0.2571585143224763</v>
       </c>
       <c r="G73">
-        <v>0.07888814946567566</v>
+        <v>0.08511565239733436</v>
       </c>
       <c r="H73">
-        <v>0.128454628359378</v>
-      </c>
-      <c r="I73">
-        <v>0.1337372171999744</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1524651686156984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.119702701439398</v>
+        <v>0.1434915162127909</v>
       </c>
       <c r="C74">
-        <v>0.1315481130633669</v>
+        <v>0.1565549966596024</v>
       </c>
       <c r="D74">
-        <v>0.09851571790565496</v>
+        <v>0.1114670149761988</v>
       </c>
       <c r="E74">
-        <v>0.13555055261237</v>
+        <v>0.1617989595120725</v>
       </c>
       <c r="F74">
-        <v>0.1439172992390059</v>
+        <v>0.175215452064381</v>
       </c>
       <c r="G74">
-        <v>0.09717851530438239</v>
+        <v>0.1129672058865545</v>
       </c>
       <c r="H74">
-        <v>0.1211922998937938</v>
-      </c>
-      <c r="I74">
-        <v>0.152394800542028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.1385048546883998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.09824020732737405</v>
+        <v>0.1115107527266514</v>
       </c>
       <c r="C75">
-        <v>0.1227142095963231</v>
+        <v>0.1424148538349875</v>
       </c>
       <c r="D75">
-        <v>0.1346349942549082</v>
+        <v>0.1528542684662654</v>
       </c>
       <c r="E75">
-        <v>0.1210912305799894</v>
+        <v>0.1362892956229135</v>
       </c>
       <c r="F75">
-        <v>0.1690765040907518</v>
+        <v>0.1959993601435078</v>
       </c>
       <c r="G75">
-        <v>0.1304543235854713</v>
+        <v>0.14705410430638</v>
       </c>
       <c r="H75">
-        <v>0.09947286380724668</v>
-      </c>
-      <c r="I75">
-        <v>0.1243156667579356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1138773648992944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1004329317008702</v>
+        <v>0.1257831923964449</v>
       </c>
       <c r="C76">
-        <v>0.1447588746047648</v>
+        <v>0.1639770030874627</v>
       </c>
       <c r="D76">
-        <v>0.1252224195666354</v>
+        <v>0.1492396296474655</v>
       </c>
       <c r="E76">
-        <v>0.1329225182899335</v>
+        <v>0.1584168297117842</v>
       </c>
       <c r="F76">
-        <v>0.1113562464698583</v>
+        <v>0.1393382430685498</v>
       </c>
       <c r="G76">
-        <v>0.1133648081442071</v>
+        <v>0.140877310475342</v>
       </c>
       <c r="H76">
-        <v>0.09819455898962109</v>
-      </c>
-      <c r="I76">
-        <v>0.1737476422341095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1223677916129507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1174810115794278</v>
+        <v>0.1431312201501784</v>
       </c>
       <c r="C77">
-        <v>0.09687087574356512</v>
+        <v>0.1102914346453968</v>
       </c>
       <c r="D77">
-        <v>0.1517199887958555</v>
+        <v>0.1676732262014329</v>
       </c>
       <c r="E77">
-        <v>0.1338095378970174</v>
+        <v>0.1531610378854383</v>
       </c>
       <c r="F77">
-        <v>0.1136037959104724</v>
+        <v>0.1159369113341964</v>
       </c>
       <c r="G77">
-        <v>0.1760311521879045</v>
+        <v>0.1940677502056481</v>
       </c>
       <c r="H77">
-        <v>0.1020827984747324</v>
-      </c>
-      <c r="I77">
-        <v>0.1084008394110249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1157384195777092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1055103020474401</v>
+        <v>0.1228635958853116</v>
       </c>
       <c r="C78">
-        <v>0.1319277451379249</v>
+        <v>0.1527983017643571</v>
       </c>
       <c r="D78">
-        <v>0.1754591843301719</v>
+        <v>0.1825259033648451</v>
       </c>
       <c r="E78">
-        <v>0.156952850613765</v>
+        <v>0.1837646294483758</v>
       </c>
       <c r="F78">
-        <v>0.08917720648411477</v>
+        <v>0.09328034775455521</v>
       </c>
       <c r="G78">
-        <v>0.1277325484904868</v>
+        <v>0.1425347567172827</v>
       </c>
       <c r="H78">
-        <v>0.1083499610222586</v>
-      </c>
-      <c r="I78">
-        <v>0.1048902018738379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1222324650652724</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1357135141750676</v>
+        <v>0.1559625762953697</v>
       </c>
       <c r="C79">
-        <v>0.1144766425340685</v>
+        <v>0.1324670341072733</v>
       </c>
       <c r="D79">
-        <v>0.1511045351377691</v>
+        <v>0.1745507170430332</v>
       </c>
       <c r="E79">
-        <v>0.1168201772761626</v>
+        <v>0.1348510714093537</v>
       </c>
       <c r="F79">
-        <v>0.2047340460047339</v>
+        <v>0.2208785496855464</v>
       </c>
       <c r="G79">
-        <v>0.06386523576260075</v>
+        <v>0.07061713414472588</v>
       </c>
       <c r="H79">
-        <v>0.09923631455410109</v>
-      </c>
-      <c r="I79">
-        <v>0.1140495345554965</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1106729173146978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.09438986698986265</v>
+        <v>0.109592080001942</v>
       </c>
       <c r="C80">
-        <v>0.1353905748117588</v>
+        <v>0.1485490352427029</v>
       </c>
       <c r="D80">
-        <v>0.1233592116878353</v>
+        <v>0.1461429604837038</v>
       </c>
       <c r="E80">
-        <v>0.134386589004533</v>
+        <v>0.156647590866706</v>
       </c>
       <c r="F80">
-        <v>0.1498499322001953</v>
+        <v>0.1767320289543887</v>
       </c>
       <c r="G80">
-        <v>0.1362091522210979</v>
+        <v>0.1494835870145219</v>
       </c>
       <c r="H80">
-        <v>0.09702717356294639</v>
-      </c>
-      <c r="I80">
-        <v>0.1293874995217708</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1128527174360347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1441477208255034</v>
+        <v>0.1649665755246887</v>
       </c>
       <c r="C81">
-        <v>0.1119460725194572</v>
+        <v>0.1282194047501939</v>
       </c>
       <c r="D81">
-        <v>0.1214476739974804</v>
+        <v>0.1499454995686826</v>
       </c>
       <c r="E81">
-        <v>0.1082584775035127</v>
+        <v>0.1309306410893751</v>
       </c>
       <c r="F81">
-        <v>0.1026722295525871</v>
+        <v>0.1156418833170024</v>
       </c>
       <c r="G81">
-        <v>0.1232433418056215</v>
+        <v>0.1475114307670543</v>
       </c>
       <c r="H81">
-        <v>0.1378779913495685</v>
-      </c>
-      <c r="I81">
-        <v>0.1504064924462692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1627845649830031</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.3385402033851078</v>
+        <v>0.4102470930749934</v>
       </c>
       <c r="C82">
-        <v>0.1221159236092577</v>
+        <v>0.1849139160721322</v>
       </c>
       <c r="D82">
-        <v>0.0707685149358023</v>
+        <v>0.1012251043442295</v>
       </c>
       <c r="E82">
-        <v>0.07241039502502181</v>
+        <v>0.09719300961972348</v>
       </c>
       <c r="F82">
-        <v>0.03979647185796836</v>
+        <v>0.04604292054578395</v>
       </c>
       <c r="G82">
-        <v>0.04841747010062266</v>
+        <v>0.07023101472015915</v>
       </c>
       <c r="H82">
-        <v>0.07376181215608932</v>
-      </c>
-      <c r="I82">
-        <v>0.2341892089301303</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.09014694162297829</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.162659666924975</v>
+        <v>0.1820543051442474</v>
       </c>
       <c r="C83">
-        <v>0.1079402321658261</v>
+        <v>0.1202958803548063</v>
       </c>
       <c r="D83">
-        <v>0.1429822171171143</v>
+        <v>0.151526433133442</v>
       </c>
       <c r="E83">
-        <v>0.09792834423873295</v>
+        <v>0.1084205796744419</v>
       </c>
       <c r="F83">
-        <v>0.09950336072462888</v>
+        <v>0.1069143960706306</v>
       </c>
       <c r="G83">
-        <v>0.1392772696811657</v>
+        <v>0.1502735106711462</v>
       </c>
       <c r="H83">
-        <v>0.1583240136975114</v>
-      </c>
-      <c r="I83">
-        <v>0.09138489545004563</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1805148949512855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1343365656623198</v>
+        <v>0.1530978738953836</v>
       </c>
       <c r="C84">
-        <v>0.1406489544646801</v>
+        <v>0.1537742825834975</v>
       </c>
       <c r="D84">
-        <v>0.1187306238753975</v>
+        <v>0.1387083047722608</v>
       </c>
       <c r="E84">
-        <v>0.1140770439162215</v>
+        <v>0.1298783791942537</v>
       </c>
       <c r="F84">
-        <v>0.09912066661594536</v>
+        <v>0.1116992103381982</v>
       </c>
       <c r="G84">
-        <v>0.1423242353517773</v>
+        <v>0.1629094155181211</v>
       </c>
       <c r="H84">
-        <v>0.1306263634945748</v>
-      </c>
-      <c r="I84">
-        <v>0.1201355466190838</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1499325336982852</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.1028485807613056</v>
+        <v>0.1040095581484046</v>
       </c>
       <c r="C85">
-        <v>0.2088015810551856</v>
+        <v>0.2132095107410996</v>
       </c>
       <c r="D85">
-        <v>0.1791555361655042</v>
+        <v>0.1828264238158872</v>
       </c>
       <c r="E85">
-        <v>0.09202185635166225</v>
+        <v>0.09841014796118157</v>
       </c>
       <c r="F85">
-        <v>0.08120612812035405</v>
+        <v>0.09773814073015744</v>
       </c>
       <c r="G85">
-        <v>0.1603446872351245</v>
+        <v>0.1892969694751205</v>
       </c>
       <c r="H85">
-        <v>0.1062719168339819</v>
-      </c>
-      <c r="I85">
-        <v>0.06934971347688178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1145092491281491</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.1037793013002151</v>
+        <v>0.1156064449342549</v>
       </c>
       <c r="C86">
-        <v>0.1177838105579941</v>
+        <v>0.1351113705482554</v>
       </c>
       <c r="D86">
-        <v>0.1258075107625051</v>
+        <v>0.1417050046301643</v>
       </c>
       <c r="E86">
-        <v>0.1317710266148643</v>
+        <v>0.1473107714427025</v>
       </c>
       <c r="F86">
-        <v>0.2187303108185486</v>
+        <v>0.2454785843178706</v>
       </c>
       <c r="G86">
-        <v>0.09437766682619045</v>
+        <v>0.1054169973802706</v>
       </c>
       <c r="H86">
-        <v>0.09743847986734487</v>
-      </c>
-      <c r="I86">
-        <v>0.1103118932523375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1093708267464817</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.09961911613272585</v>
+        <v>0.1103635585203102</v>
       </c>
       <c r="C87">
-        <v>0.1207116700695247</v>
+        <v>0.1394184205557122</v>
       </c>
       <c r="D87">
-        <v>0.1202672341119812</v>
+        <v>0.1326430028570347</v>
       </c>
       <c r="E87">
-        <v>0.1303753720612887</v>
+        <v>0.1462741672319146</v>
       </c>
       <c r="F87">
-        <v>0.2243578945168442</v>
+        <v>0.2546478252859139</v>
       </c>
       <c r="G87">
-        <v>0.1000214701089027</v>
+        <v>0.1139187538791709</v>
       </c>
       <c r="H87">
-        <v>0.0911397671736304</v>
-      </c>
-      <c r="I87">
-        <v>0.1135074758251023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.1027342716699434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1105060448658767</v>
+        <v>0.1138885816555548</v>
       </c>
       <c r="C88">
-        <v>0.09644056903851457</v>
+        <v>0.1059004335013837</v>
       </c>
       <c r="D88">
-        <v>0.1006417581036121</v>
+        <v>0.1129139451874954</v>
       </c>
       <c r="E88">
-        <v>0.08797604928893188</v>
+        <v>0.09965649110666869</v>
       </c>
       <c r="F88">
-        <v>0.1796919960977784</v>
+        <v>0.1931041777760849</v>
       </c>
       <c r="G88">
-        <v>0.2196254874729864</v>
+        <v>0.2517340958627708</v>
       </c>
       <c r="H88">
-        <v>0.1115300063792971</v>
-      </c>
-      <c r="I88">
-        <v>0.09358808875300283</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.1228022749100419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1607628520186239</v>
+        <v>0.1840815816766867</v>
       </c>
       <c r="C89">
-        <v>0.1135676766515846</v>
+        <v>0.1267161463526255</v>
       </c>
       <c r="D89">
-        <v>0.1302389480984925</v>
+        <v>0.1584310660227147</v>
       </c>
       <c r="E89">
-        <v>0.1118256843482556</v>
+        <v>0.1251022977405558</v>
       </c>
       <c r="F89">
-        <v>0.1047262892209372</v>
+        <v>0.1063226636699624</v>
       </c>
       <c r="G89">
-        <v>0.1149562391411715</v>
+        <v>0.1301446201048534</v>
       </c>
       <c r="H89">
-        <v>0.1506907523798884</v>
-      </c>
-      <c r="I89">
-        <v>0.1132315581410461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1692016244326014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1015930486714396</v>
+        <v>0.1187490510974333</v>
       </c>
       <c r="C90">
-        <v>0.1438124100663465</v>
+        <v>0.1672234878032931</v>
       </c>
       <c r="D90">
-        <v>0.1149680598412971</v>
+        <v>0.1369188121542343</v>
       </c>
       <c r="E90">
-        <v>0.1241732454589601</v>
+        <v>0.1421645284694643</v>
       </c>
       <c r="F90">
-        <v>0.1428390477858049</v>
+        <v>0.1745055214728845</v>
       </c>
       <c r="G90">
-        <v>0.1280796157305915</v>
+        <v>0.1427578119233125</v>
       </c>
       <c r="H90">
-        <v>0.1031280040284215</v>
-      </c>
-      <c r="I90">
-        <v>0.1414065684171391</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1176807870793781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1211005909646041</v>
+        <v>0.1402333249595274</v>
       </c>
       <c r="C91">
-        <v>0.1189976505511958</v>
+        <v>0.1339325417785418</v>
       </c>
       <c r="D91">
-        <v>0.1068758749479451</v>
+        <v>0.1217089237213221</v>
       </c>
       <c r="E91">
-        <v>0.1225896787835959</v>
+        <v>0.1400204209253592</v>
       </c>
       <c r="F91">
-        <v>0.2339567426646899</v>
+        <v>0.2739737068988524</v>
       </c>
       <c r="G91">
-        <v>0.05054074849495907</v>
+        <v>0.05771389882214822</v>
       </c>
       <c r="H91">
-        <v>0.1142344170666166</v>
-      </c>
-      <c r="I91">
-        <v>0.1317042965263936</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1324171828942489</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.2085047011108423</v>
+        <v>0.2398306607216343</v>
       </c>
       <c r="C92">
-        <v>0.1521436577839831</v>
+        <v>0.1711480939907591</v>
       </c>
       <c r="D92">
-        <v>0.09132993696464799</v>
+        <v>0.101297764016523</v>
       </c>
       <c r="E92">
-        <v>0.08628188649819761</v>
+        <v>0.09569875800363854</v>
       </c>
       <c r="F92">
-        <v>0.05586409876606709</v>
+        <v>0.06251774581000857</v>
       </c>
       <c r="G92">
-        <v>0.1300533962402775</v>
+        <v>0.1399424675355983</v>
       </c>
       <c r="H92">
-        <v>0.1642201983210886</v>
-      </c>
-      <c r="I92">
-        <v>0.1116021243148958</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1895645099218382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1405799142096546</v>
+        <v>0.1589578039145928</v>
       </c>
       <c r="C93">
-        <v>0.1265561600379608</v>
+        <v>0.1438178976715013</v>
       </c>
       <c r="D93">
-        <v>0.1084609378790319</v>
+        <v>0.1261967886721555</v>
       </c>
       <c r="E93">
-        <v>0.125039192319188</v>
+        <v>0.1442772954626933</v>
       </c>
       <c r="F93">
-        <v>0.1076688076059323</v>
+        <v>0.1226347509853041</v>
       </c>
       <c r="G93">
-        <v>0.1396713291809153</v>
+        <v>0.1586287612482636</v>
       </c>
       <c r="H93">
-        <v>0.1278886664565784</v>
-      </c>
-      <c r="I93">
-        <v>0.1241349923107388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.1454867020454896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.08805424278471681</v>
+        <v>0.0933568513996742</v>
       </c>
       <c r="C94">
-        <v>0.1108120255764955</v>
+        <v>0.119234550035984</v>
       </c>
       <c r="D94">
-        <v>0.1260278699885581</v>
+        <v>0.1425816717987938</v>
       </c>
       <c r="E94">
-        <v>0.1314861956428126</v>
+        <v>0.1501358725701489</v>
       </c>
       <c r="F94">
-        <v>0.2530788664592474</v>
+        <v>0.2834336546203732</v>
       </c>
       <c r="G94">
-        <v>0.09636089754822931</v>
+        <v>0.1046981501833104</v>
       </c>
       <c r="H94">
-        <v>0.09705373504531517</v>
-      </c>
-      <c r="I94">
-        <v>0.09712616695462513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.1065592493917156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1026668797936159</v>
+        <v>0.1173276426175744</v>
       </c>
       <c r="C95">
-        <v>0.1004937514900095</v>
+        <v>0.1167003408868825</v>
       </c>
       <c r="D95">
-        <v>0.1252048450427111</v>
+        <v>0.1383193796571667</v>
       </c>
       <c r="E95">
-        <v>0.1408797168916214</v>
+        <v>0.158641144872279</v>
       </c>
       <c r="F95">
-        <v>0.2022661371129634</v>
+        <v>0.2288038950483536</v>
       </c>
       <c r="G95">
-        <v>0.0979378379943424</v>
+        <v>0.1132159509421521</v>
       </c>
       <c r="H95">
-        <v>0.1081657573965933</v>
-      </c>
-      <c r="I95">
-        <v>0.1223850742781433</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1269916459755918</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.1434958584671929</v>
+        <v>0.1660265017752267</v>
       </c>
       <c r="C96">
-        <v>0.1212059415758319</v>
+        <v>0.1405828616809618</v>
       </c>
       <c r="D96">
-        <v>0.1117740550442922</v>
+        <v>0.1264314670905503</v>
       </c>
       <c r="E96">
-        <v>0.1445202171437408</v>
+        <v>0.1696071293832597</v>
       </c>
       <c r="F96">
-        <v>0.0833728826196405</v>
+        <v>0.09008651416516389</v>
       </c>
       <c r="G96">
-        <v>0.1283028852034059</v>
+        <v>0.1526539841966083</v>
       </c>
       <c r="H96">
-        <v>0.142370123402334</v>
-      </c>
-      <c r="I96">
-        <v>0.1249580365435617</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1546115417082292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.1432166717586345</v>
+        <v>0.163124868602383</v>
       </c>
       <c r="C97">
-        <v>0.1147984393516941</v>
+        <v>0.1314448276379578</v>
       </c>
       <c r="D97">
-        <v>0.09229874525558311</v>
+        <v>0.1014825684611804</v>
       </c>
       <c r="E97">
-        <v>0.0861710595433316</v>
+        <v>0.09617748840208024</v>
       </c>
       <c r="F97">
-        <v>0.325068093108976</v>
+        <v>0.3488059730962955</v>
       </c>
       <c r="G97">
-        <v>0.06309976981738473</v>
+        <v>0.06788839964015163</v>
       </c>
       <c r="H97">
-        <v>0.07609156649647658</v>
-      </c>
-      <c r="I97">
-        <v>0.0992556546679195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.09107587415995154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1434145896000219</v>
+        <v>0.1707855217198506</v>
       </c>
       <c r="C98">
-        <v>0.1376688535925753</v>
+        <v>0.1591245304493777</v>
       </c>
       <c r="D98">
-        <v>0.09424229775869725</v>
+        <v>0.1078288007409689</v>
       </c>
       <c r="E98">
-        <v>0.1261608062834305</v>
+        <v>0.1486543870075322</v>
       </c>
       <c r="F98">
-        <v>0.07244457181483165</v>
+        <v>0.08256297963947209</v>
       </c>
       <c r="G98">
-        <v>0.1395434407051774</v>
+        <v>0.163995352982114</v>
       </c>
       <c r="H98">
-        <v>0.1364707505272724</v>
-      </c>
-      <c r="I98">
-        <v>0.1500546897179935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.1670484274606845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.08525351088962359</v>
+        <v>0.09232304249647501</v>
       </c>
       <c r="C99">
-        <v>0.1078201017033514</v>
+        <v>0.1122928831172641</v>
       </c>
       <c r="D99">
-        <v>0.1114666721868672</v>
+        <v>0.1302407292686191</v>
       </c>
       <c r="E99">
-        <v>0.1110364592186229</v>
+        <v>0.1268551212190973</v>
       </c>
       <c r="F99">
-        <v>0.240888171879833</v>
+        <v>0.2762875513044135</v>
       </c>
       <c r="G99">
-        <v>0.1018221577450296</v>
+        <v>0.1154772664354637</v>
       </c>
       <c r="H99">
-        <v>0.1286196465963841</v>
-      </c>
-      <c r="I99">
-        <v>0.113093279780288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1465234061586673</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1421616188038876</v>
+        <v>0.1703718952626898</v>
       </c>
       <c r="C100">
-        <v>0.1284627826381386</v>
+        <v>0.1480722621123584</v>
       </c>
       <c r="D100">
-        <v>0.09114435491962215</v>
+        <v>0.105513844053687</v>
       </c>
       <c r="E100">
-        <v>0.1248709368747206</v>
+        <v>0.1475665807713016</v>
       </c>
       <c r="F100">
-        <v>0.07522397601308047</v>
+        <v>0.09101863445100745</v>
       </c>
       <c r="G100">
-        <v>0.1495933985379008</v>
+        <v>0.1752629622786363</v>
       </c>
       <c r="H100">
-        <v>0.1401586559282207</v>
-      </c>
-      <c r="I100">
-        <v>0.1483842762844291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.1621938210703195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.1542430015859209</v>
+        <v>0.1769854311122118</v>
       </c>
       <c r="C101">
-        <v>0.1370416247184295</v>
+        <v>0.1649483829391247</v>
       </c>
       <c r="D101">
-        <v>0.10314098223268</v>
+        <v>0.1304025753633691</v>
       </c>
       <c r="E101">
-        <v>0.113347900727101</v>
+        <v>0.1380706685840417</v>
       </c>
       <c r="F101">
-        <v>0.05076893495087569</v>
+        <v>0.0648744748323401</v>
       </c>
       <c r="G101">
-        <v>0.1767469086434468</v>
+        <v>0.2015012974078887</v>
       </c>
       <c r="H101">
-        <v>0.107378320195255</v>
-      </c>
-      <c r="I101">
-        <v>0.1573323269462911</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.1232171697610238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1034742651825527</v>
+        <v>0.1211099185280444</v>
       </c>
       <c r="C102">
-        <v>0.1179564706285244</v>
+        <v>0.1380991374032451</v>
       </c>
       <c r="D102">
-        <v>0.1345513676085118</v>
+        <v>0.1506195396183446</v>
       </c>
       <c r="E102">
-        <v>0.1267768521841009</v>
+        <v>0.1457904030575408</v>
       </c>
       <c r="F102">
-        <v>0.1401190014150045</v>
+        <v>0.1641679387708134</v>
       </c>
       <c r="G102">
-        <v>0.1342664465259635</v>
+        <v>0.1531795052730251</v>
       </c>
       <c r="H102">
-        <v>0.1089212100143493</v>
-      </c>
-      <c r="I102">
-        <v>0.1339343864409928</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1270335573489866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1217432048541302</v>
+        <v>0.1353800578626353</v>
       </c>
       <c r="C103">
-        <v>0.1446873314828135</v>
+        <v>0.1653814114364336</v>
       </c>
       <c r="D103">
-        <v>0.1013036956836867</v>
+        <v>0.1172260971577224</v>
       </c>
       <c r="E103">
-        <v>0.1202653954110215</v>
+        <v>0.1354404673846016</v>
       </c>
       <c r="F103">
-        <v>0.224631419545777</v>
+        <v>0.2572474239708552</v>
       </c>
       <c r="G103">
-        <v>0.06604135281399094</v>
+        <v>0.07839447869757754</v>
       </c>
       <c r="H103">
-        <v>0.09544045074679718</v>
-      </c>
-      <c r="I103">
-        <v>0.1258871494617831</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1109300634901744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.171971328270217</v>
+        <v>0.1970241613701404</v>
       </c>
       <c r="C104">
-        <v>0.1355317905624353</v>
+        <v>0.1544164181226573</v>
       </c>
       <c r="D104">
-        <v>0.1132476221470177</v>
+        <v>0.1259223673703035</v>
       </c>
       <c r="E104">
-        <v>0.0914334252504668</v>
+        <v>0.103669602983903</v>
       </c>
       <c r="F104">
-        <v>0.2206381950718342</v>
+        <v>0.2637638395833707</v>
       </c>
       <c r="G104">
-        <v>0.06017284616794944</v>
+        <v>0.07092158324547519</v>
       </c>
       <c r="H104">
-        <v>0.07359542873083372</v>
-      </c>
-      <c r="I104">
-        <v>0.1334093637992459</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.08428202732415006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1184844944139098</v>
+        <v>0.1355688019102691</v>
       </c>
       <c r="C105">
-        <v>0.1342732565244313</v>
+        <v>0.155612709570575</v>
       </c>
       <c r="D105">
-        <v>0.1020716218703278</v>
+        <v>0.1268976703203099</v>
       </c>
       <c r="E105">
-        <v>0.1369267923368429</v>
+        <v>0.1583873803515657</v>
       </c>
       <c r="F105">
-        <v>0.1141785769185384</v>
+        <v>0.1351884055716253</v>
       </c>
       <c r="G105">
-        <v>0.112433470150985</v>
+        <v>0.1454405094740596</v>
       </c>
       <c r="H105">
-        <v>0.1281984714918237</v>
-      </c>
-      <c r="I105">
-        <v>0.1534333162931413</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1429045228015954</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.09907817701912201</v>
+        <v>0.1125513070785554</v>
       </c>
       <c r="C106">
-        <v>0.1079785958201317</v>
+        <v>0.1235786787163882</v>
       </c>
       <c r="D106">
-        <v>0.1066516702881693</v>
+        <v>0.1207037184426993</v>
       </c>
       <c r="E106">
-        <v>0.1267170263645294</v>
+        <v>0.1424466320365826</v>
       </c>
       <c r="F106">
-        <v>0.2546841781372498</v>
+        <v>0.287013752092256</v>
       </c>
       <c r="G106">
-        <v>0.09358126328541005</v>
+        <v>0.1041617505724445</v>
       </c>
       <c r="H106">
-        <v>0.09758043733125923</v>
-      </c>
-      <c r="I106">
-        <v>0.1137286517541286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.109544161061074</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1287427647404709</v>
+        <v>0.1456478092804568</v>
       </c>
       <c r="C107">
-        <v>0.1030584842354521</v>
+        <v>0.1156864558987904</v>
       </c>
       <c r="D107">
-        <v>0.1163017888962582</v>
+        <v>0.1301855434100682</v>
       </c>
       <c r="E107">
-        <v>0.1231964271714673</v>
+        <v>0.1399073495629974</v>
       </c>
       <c r="F107">
-        <v>0.1127605798957229</v>
+        <v>0.1221311936411262</v>
       </c>
       <c r="G107">
-        <v>0.1358421167728296</v>
+        <v>0.1503821691325117</v>
       </c>
       <c r="H107">
-        <v>0.1750680029111753</v>
-      </c>
-      <c r="I107">
-        <v>0.1050298353766237</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1960594790740494</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1354946604818547</v>
+        <v>0.1692171758595188</v>
       </c>
       <c r="C108">
-        <v>0.1728544127923018</v>
+        <v>0.1999773009051059</v>
       </c>
       <c r="D108">
-        <v>0.130225382558577</v>
+        <v>0.1443997416717247</v>
       </c>
       <c r="E108">
-        <v>0.1074208799191724</v>
+        <v>0.1138822856098311</v>
       </c>
       <c r="F108">
-        <v>0.06643084876170004</v>
+        <v>0.0666756061172343</v>
       </c>
       <c r="G108">
-        <v>0.1572458217099513</v>
+        <v>0.1946258251159606</v>
       </c>
       <c r="H108">
-        <v>0.09971174259351172</v>
-      </c>
-      <c r="I108">
-        <v>0.1306162511829309</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1112220647206248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.3572449694073134</v>
+        <v>0.4087154133381696</v>
       </c>
       <c r="C109">
-        <v>0.07555981268117587</v>
+        <v>0.0835529373616416</v>
       </c>
       <c r="D109">
-        <v>0.05477556542761306</v>
+        <v>0.06704197550769649</v>
       </c>
       <c r="E109">
-        <v>0.1262324937156792</v>
+        <v>0.146390736927642</v>
       </c>
       <c r="F109">
-        <v>0.04606067789357224</v>
+        <v>0.05171339132705102</v>
       </c>
       <c r="G109">
-        <v>0.06344093091382239</v>
+        <v>0.06766739864253829</v>
       </c>
       <c r="H109">
-        <v>0.1508314832515398</v>
-      </c>
-      <c r="I109">
-        <v>0.1258540667092841</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1749181468952611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.17553084125472</v>
+        <v>0.2026654771005532</v>
       </c>
       <c r="C110">
-        <v>0.1125135388620204</v>
+        <v>0.1297688349572794</v>
       </c>
       <c r="D110">
-        <v>0.1200576830986522</v>
+        <v>0.129948979419297</v>
       </c>
       <c r="E110">
-        <v>0.1243988664760082</v>
+        <v>0.1414946924070083</v>
       </c>
       <c r="F110">
-        <v>0.09965668193002104</v>
+        <v>0.1085944709955705</v>
       </c>
       <c r="G110">
-        <v>0.1040082695193786</v>
+        <v>0.1113429757462482</v>
       </c>
       <c r="H110">
-        <v>0.1583196515475709</v>
-      </c>
-      <c r="I110">
-        <v>0.1055144673116287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1761845693740434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.0903382995679957</v>
+        <v>0.1074038360710034</v>
       </c>
       <c r="C111">
-        <v>0.09968250693203856</v>
+        <v>0.1164734648110618</v>
       </c>
       <c r="D111">
-        <v>0.1297909997314358</v>
+        <v>0.1405692448661402</v>
       </c>
       <c r="E111">
-        <v>0.1396436269790884</v>
+        <v>0.1595545689424644</v>
       </c>
       <c r="F111">
-        <v>0.212934725529306</v>
+        <v>0.2438823569843933</v>
       </c>
       <c r="G111">
-        <v>0.09275353129403754</v>
+        <v>0.1096776348870473</v>
       </c>
       <c r="H111">
-        <v>0.120162359731781</v>
-      </c>
-      <c r="I111">
-        <v>0.1146939502343172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.1224388934378897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1099867113548174</v>
+        <v>0.1241071347237496</v>
       </c>
       <c r="C112">
-        <v>0.1414275902991983</v>
+        <v>0.1674418911590181</v>
       </c>
       <c r="D112">
-        <v>0.1130055109030728</v>
+        <v>0.1356154080232427</v>
       </c>
       <c r="E112">
-        <v>0.1345134400560214</v>
+        <v>0.1563187724714491</v>
       </c>
       <c r="F112">
-        <v>0.1288539339828342</v>
+        <v>0.1399782069841146</v>
       </c>
       <c r="G112">
-        <v>0.1194686268282019</v>
+        <v>0.1364489900447384</v>
       </c>
       <c r="H112">
-        <v>0.1216356508761142</v>
-      </c>
-      <c r="I112">
-        <v>0.1311085356997398</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1400895965936875</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1203142882294793</v>
+        <v>0.1414382589671556</v>
       </c>
       <c r="C113">
-        <v>0.1226487422098606</v>
+        <v>0.1417184189452233</v>
       </c>
       <c r="D113">
-        <v>0.1158668580434149</v>
+        <v>0.1326577665107577</v>
       </c>
       <c r="E113">
-        <v>0.1254598666010404</v>
+        <v>0.1435028138013784</v>
       </c>
       <c r="F113">
-        <v>0.1054364531916111</v>
+        <v>0.1200716885884632</v>
       </c>
       <c r="G113">
-        <v>0.1523520104205063</v>
+        <v>0.1769711997289136</v>
       </c>
       <c r="H113">
-        <v>0.1248729081260931</v>
-      </c>
-      <c r="I113">
-        <v>0.1330488731779942</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1436398534581082</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.1143087212609714</v>
+        <v>0.1356254013943418</v>
       </c>
       <c r="C114">
-        <v>0.1298642311413056</v>
+        <v>0.1506901456932989</v>
       </c>
       <c r="D114">
-        <v>0.1175049331518125</v>
+        <v>0.1496058356097766</v>
       </c>
       <c r="E114">
-        <v>0.1301318107536192</v>
+        <v>0.161134835733873</v>
       </c>
       <c r="F114">
-        <v>0.1126810919073917</v>
+        <v>0.1330963602941328</v>
       </c>
       <c r="G114">
-        <v>0.1195535829140314</v>
+        <v>0.1441822337846393</v>
       </c>
       <c r="H114">
-        <v>0.1081984112736739</v>
-      </c>
-      <c r="I114">
-        <v>0.1677572175971941</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1256651874899374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1747991912384051</v>
+        <v>0.2005908085862443</v>
       </c>
       <c r="C115">
-        <v>0.08056144419183643</v>
+        <v>0.09107679455366921</v>
       </c>
       <c r="D115">
-        <v>0.1256174023657334</v>
+        <v>0.1448717150751123</v>
       </c>
       <c r="E115">
-        <v>0.1239341225024549</v>
+        <v>0.1346142816611733</v>
       </c>
       <c r="F115">
-        <v>0.1651014883175211</v>
+        <v>0.1823006299059018</v>
       </c>
       <c r="G115">
-        <v>0.09983270343465377</v>
+        <v>0.1111975116007029</v>
       </c>
       <c r="H115">
-        <v>0.118513697338834</v>
-      </c>
-      <c r="I115">
-        <v>0.1116399506105613</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.135348258617196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.1965304050572043</v>
+        <v>0.2249898704351938</v>
       </c>
       <c r="C116">
-        <v>0.1260765801697865</v>
+        <v>0.1466329088067783</v>
       </c>
       <c r="D116">
-        <v>0.09722421617834545</v>
+        <v>0.1137667675588667</v>
       </c>
       <c r="E116">
-        <v>0.1055244980591881</v>
+        <v>0.1236968951637194</v>
       </c>
       <c r="F116">
-        <v>0.06930603326681245</v>
+        <v>0.07984334092238701</v>
       </c>
       <c r="G116">
-        <v>0.1247917486243573</v>
+        <v>0.1485825292589966</v>
       </c>
       <c r="H116">
-        <v>0.1406299613426098</v>
-      </c>
-      <c r="I116">
-        <v>0.1399165573016962</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1624876878540582</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.1007374515222279</v>
+        <v>0.1197558595668159</v>
       </c>
       <c r="C117">
-        <v>0.1211680330394444</v>
+        <v>0.1424837157917627</v>
       </c>
       <c r="D117">
-        <v>0.1017127471993158</v>
+        <v>0.1186254524218447</v>
       </c>
       <c r="E117">
-        <v>0.1331456764840177</v>
+        <v>0.1463103908793313</v>
       </c>
       <c r="F117">
-        <v>0.2057576869766253</v>
+        <v>0.2253753445173264</v>
       </c>
       <c r="G117">
-        <v>0.1008289834730293</v>
+        <v>0.1227471652901581</v>
       </c>
       <c r="H117">
-        <v>0.1182850997222342</v>
-      </c>
-      <c r="I117">
-        <v>0.1183643215831054</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.1247020715327609</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.08905064608955786</v>
+        <v>0.1013363604979675</v>
       </c>
       <c r="C118">
-        <v>0.1236968862410965</v>
+        <v>0.1415290999913777</v>
       </c>
       <c r="D118">
-        <v>0.1221409322105831</v>
+        <v>0.14552332848247</v>
       </c>
       <c r="E118">
-        <v>0.1240295497176997</v>
+        <v>0.1382738748705757</v>
       </c>
       <c r="F118">
-        <v>0.226580227896731</v>
+        <v>0.2611509858723872</v>
       </c>
       <c r="G118">
-        <v>0.07069497149434438</v>
+        <v>0.07869486732020886</v>
       </c>
       <c r="H118">
-        <v>0.1167583691314954</v>
-      </c>
-      <c r="I118">
-        <v>0.1270484172184919</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1334914829650131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.09658916027317831</v>
+        <v>0.1087749413997462</v>
       </c>
       <c r="C119">
-        <v>0.1075942108612837</v>
+        <v>0.1246172065156671</v>
       </c>
       <c r="D119">
-        <v>0.1305499392954842</v>
+        <v>0.1502435086555076</v>
       </c>
       <c r="E119">
-        <v>0.1531764264008542</v>
+        <v>0.1754630488068428</v>
       </c>
       <c r="F119">
-        <v>0.1866136476093053</v>
+        <v>0.2155666543510998</v>
       </c>
       <c r="G119">
-        <v>0.09681257107978991</v>
+        <v>0.1094417929566932</v>
       </c>
       <c r="H119">
-        <v>0.1020250410165296</v>
-      </c>
-      <c r="I119">
-        <v>0.1266390034635748</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1158928473144434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1045031088083216</v>
+        <v>0.1182579756946487</v>
       </c>
       <c r="C120">
-        <v>0.1135594845711666</v>
+        <v>0.1298690665115362</v>
       </c>
       <c r="D120">
-        <v>0.1235143325581272</v>
+        <v>0.1419680359690703</v>
       </c>
       <c r="E120">
-        <v>0.139983743341912</v>
+        <v>0.1615336684218633</v>
       </c>
       <c r="F120">
-        <v>0.1814278162482276</v>
+        <v>0.2079994978192777</v>
       </c>
       <c r="G120">
-        <v>0.1006515764080813</v>
+        <v>0.1165945433849645</v>
       </c>
       <c r="H120">
-        <v>0.1086747747811114</v>
-      </c>
-      <c r="I120">
-        <v>0.1276851632830523</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1237772121986393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.2143986967199112</v>
+        <v>0.249891209516163</v>
       </c>
       <c r="C121">
-        <v>0.153262636071004</v>
+        <v>0.2034745721144003</v>
       </c>
       <c r="D121">
-        <v>0.09007186138411596</v>
+        <v>0.1081480770190332</v>
       </c>
       <c r="E121">
-        <v>0.08051842556858795</v>
+        <v>0.09689154712399173</v>
       </c>
       <c r="F121">
-        <v>0.04951152855772749</v>
+        <v>0.06176527169085042</v>
       </c>
       <c r="G121">
-        <v>0.1058736383843052</v>
+        <v>0.1248526126232289</v>
       </c>
       <c r="H121">
-        <v>0.1244162590749984</v>
-      </c>
-      <c r="I121">
-        <v>0.18194695423935</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1549767099123324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1162618314089333</v>
+        <v>0.1390367201424201</v>
       </c>
       <c r="C122">
-        <v>0.1337325756045202</v>
+        <v>0.1628153122481462</v>
       </c>
       <c r="D122">
-        <v>0.1224019817608865</v>
+        <v>0.1403580466059726</v>
       </c>
       <c r="E122">
-        <v>0.1364796651578646</v>
+        <v>0.1490634572409685</v>
       </c>
       <c r="F122">
-        <v>0.130753342765988</v>
+        <v>0.1524590815847534</v>
       </c>
       <c r="G122">
-        <v>0.1145033719820672</v>
+        <v>0.1387793909967115</v>
       </c>
       <c r="H122">
-        <v>0.106936396553473</v>
-      </c>
-      <c r="I122">
-        <v>0.1389308347662674</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1174879911810279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1527977567094292</v>
+        <v>0.1799738961379147</v>
       </c>
       <c r="C123">
-        <v>0.1145555697328592</v>
+        <v>0.1325465874359471</v>
       </c>
       <c r="D123">
-        <v>0.1097834007484179</v>
+        <v>0.1337069958343458</v>
       </c>
       <c r="E123">
-        <v>0.1135750700562012</v>
+        <v>0.1407583067080099</v>
       </c>
       <c r="F123">
-        <v>0.08036811196500929</v>
+        <v>0.09826596198836861</v>
       </c>
       <c r="G123">
-        <v>0.1319108422714827</v>
+        <v>0.157472380704939</v>
       </c>
       <c r="H123">
-        <v>0.1361333721332757</v>
-      </c>
-      <c r="I123">
-        <v>0.1608758763833249</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1572758711904749</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1530885309149687</v>
+        <v>0.1660236406404476</v>
       </c>
       <c r="C124">
-        <v>0.145610957622328</v>
+        <v>0.1709050996463067</v>
       </c>
       <c r="D124">
-        <v>0.04543607739498649</v>
+        <v>0.04704417529132822</v>
       </c>
       <c r="E124">
-        <v>0.04457669838379187</v>
+        <v>0.04613446262445267</v>
       </c>
       <c r="F124">
-        <v>0.3286996863194781</v>
+        <v>0.3737831030906837</v>
       </c>
       <c r="G124">
-        <v>0.056045162417009</v>
+        <v>0.06062431637759554</v>
       </c>
       <c r="H124">
-        <v>0.1123700042576778</v>
-      </c>
-      <c r="I124">
-        <v>0.1141728826897601</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1354852023291856</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1249040132388289</v>
+        <v>0.1437434498744478</v>
       </c>
       <c r="C125">
-        <v>0.09481110105357164</v>
+        <v>0.1173651839776377</v>
       </c>
       <c r="D125">
-        <v>0.1062086479260526</v>
+        <v>0.1276635056086169</v>
       </c>
       <c r="E125">
-        <v>0.1285644306034198</v>
+        <v>0.1500508969154398</v>
       </c>
       <c r="F125">
-        <v>0.1388468229298399</v>
+        <v>0.1605374694492833</v>
       </c>
       <c r="G125">
-        <v>0.1408051688865231</v>
+        <v>0.1635999596454467</v>
       </c>
       <c r="H125">
-        <v>0.110325576000419</v>
-      </c>
-      <c r="I125">
-        <v>0.1555342393613451</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.1370395345291275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1552792754862593</v>
+        <v>0.1803819485267846</v>
       </c>
       <c r="C126">
-        <v>0.1652275680933203</v>
+        <v>0.1951679042304515</v>
       </c>
       <c r="D126">
-        <v>0.09905580822503393</v>
+        <v>0.1193532662217332</v>
       </c>
       <c r="E126">
-        <v>0.1029622318208964</v>
+        <v>0.1268743668284048</v>
       </c>
       <c r="F126">
-        <v>0.05881342021769323</v>
+        <v>0.07099760059871921</v>
       </c>
       <c r="G126">
-        <v>0.1655113629955411</v>
+        <v>0.1896793146180568</v>
       </c>
       <c r="H126">
-        <v>0.0945133893021488</v>
-      </c>
-      <c r="I126">
-        <v>0.1586369438591069</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.1175455989758499</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1005551502387306</v>
+        <v>0.1098623131733774</v>
       </c>
       <c r="C127">
-        <v>0.1628333804755717</v>
+        <v>0.1839110803009523</v>
       </c>
       <c r="D127">
-        <v>0.08863470699069928</v>
+        <v>0.08522675740723384</v>
       </c>
       <c r="E127">
-        <v>0.08313455975461058</v>
+        <v>0.08727305644090001</v>
       </c>
       <c r="F127">
-        <v>0.2981828130470077</v>
+        <v>0.3169638739270998</v>
       </c>
       <c r="G127">
-        <v>0.1494825823640998</v>
+        <v>0.1530820572935027</v>
       </c>
       <c r="H127">
-        <v>0.05709331777193872</v>
-      </c>
-      <c r="I127">
-        <v>0.06008348935734162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.06368086145693384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.08754213283108715</v>
+        <v>0.09479266363449612</v>
       </c>
       <c r="C128">
-        <v>0.1242449937084077</v>
+        <v>0.1391254625017662</v>
       </c>
       <c r="D128">
-        <v>0.1238388884959748</v>
+        <v>0.1384644892412689</v>
       </c>
       <c r="E128">
-        <v>0.1366478021044311</v>
+        <v>0.153033691661538</v>
       </c>
       <c r="F128">
-        <v>0.2164176875012106</v>
+        <v>0.248537013372043</v>
       </c>
       <c r="G128">
-        <v>0.08617404651561335</v>
+        <v>0.09685396244759595</v>
       </c>
       <c r="H128">
-        <v>0.1140060362731719</v>
-      </c>
-      <c r="I128">
-        <v>0.1111284125701033</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1291927171412918</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1009363480161963</v>
+        <v>0.1157947388908849</v>
       </c>
       <c r="C129">
-        <v>0.1241305492385577</v>
+        <v>0.1424073191682432</v>
       </c>
       <c r="D129">
-        <v>0.1319735709508958</v>
+        <v>0.1485901083506185</v>
       </c>
       <c r="E129">
-        <v>0.1172730564322288</v>
+        <v>0.132087165731345</v>
       </c>
       <c r="F129">
-        <v>0.2123360644354025</v>
+        <v>0.2403315957581114</v>
       </c>
       <c r="G129">
-        <v>0.08022041457985137</v>
+        <v>0.09056883308245887</v>
       </c>
       <c r="H129">
-        <v>0.1171363169500532</v>
-      </c>
-      <c r="I129">
-        <v>0.1159936793968144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1302202390183382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1537227088348926</v>
+        <v>0.1795318351387935</v>
       </c>
       <c r="C130">
-        <v>0.1330131903625964</v>
+        <v>0.1571952551115984</v>
       </c>
       <c r="D130">
-        <v>0.1060006084099607</v>
+        <v>0.1261129642028251</v>
       </c>
       <c r="E130">
-        <v>0.1067923226535633</v>
+        <v>0.1262786236840696</v>
       </c>
       <c r="F130">
-        <v>0.07778597877692729</v>
+        <v>0.094322476800693</v>
       </c>
       <c r="G130">
-        <v>0.1435515430456896</v>
+        <v>0.1678701042395062</v>
       </c>
       <c r="H130">
-        <v>0.1279425049733939</v>
-      </c>
-      <c r="I130">
-        <v>0.1511911429429761</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1486887408225142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1303508998123293</v>
+        <v>0.1452602894519745</v>
       </c>
       <c r="C131">
-        <v>0.1235853915487726</v>
+        <v>0.144193330931414</v>
       </c>
       <c r="D131">
-        <v>0.1298434631604159</v>
+        <v>0.1430281515988619</v>
       </c>
       <c r="E131">
-        <v>0.1127487099925701</v>
+        <v>0.1267768896640212</v>
       </c>
       <c r="F131">
-        <v>0.1232644153982987</v>
+        <v>0.1381162851244254</v>
       </c>
       <c r="G131">
-        <v>0.1313906153769078</v>
+        <v>0.1571272359142364</v>
       </c>
       <c r="H131">
-        <v>0.1257189275271883</v>
-      </c>
-      <c r="I131">
-        <v>0.1230975771835175</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1454978173150665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1195767073495785</v>
+        <v>0.1252191288016162</v>
       </c>
       <c r="C132">
-        <v>0.07490208594017736</v>
+        <v>0.07555614288840536</v>
       </c>
       <c r="D132">
-        <v>0.2610603510982881</v>
+        <v>0.2783364964871678</v>
       </c>
       <c r="E132">
-        <v>0.1116055857758755</v>
+        <v>0.1142002683345444</v>
       </c>
       <c r="F132">
-        <v>0.173192642455838</v>
+        <v>0.1962159676089004</v>
       </c>
       <c r="G132">
-        <v>0.06783613476210132</v>
+        <v>0.06969393772990318</v>
       </c>
       <c r="H132">
-        <v>0.1275887060594294</v>
-      </c>
-      <c r="I132">
-        <v>0.06423778655871169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1407780581494627</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1481308425624699</v>
+        <v>0.1685457991170435</v>
       </c>
       <c r="C133">
-        <v>0.1542365478516219</v>
+        <v>0.1719735672034477</v>
       </c>
       <c r="D133">
-        <v>0.1223208521142802</v>
+        <v>0.1323992471544552</v>
       </c>
       <c r="E133">
-        <v>0.1228392748853407</v>
+        <v>0.1363326942974335</v>
       </c>
       <c r="F133">
-        <v>0.08085330027884872</v>
+        <v>0.08773236064605407</v>
       </c>
       <c r="G133">
-        <v>0.1023090126848196</v>
+        <v>0.1220291155234569</v>
       </c>
       <c r="H133">
-        <v>0.1561258147686111</v>
-      </c>
-      <c r="I133">
-        <v>0.1131843548540079</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.1809872160581092</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.08681490158315507</v>
+        <v>0.09656559602127648</v>
       </c>
       <c r="C134">
-        <v>0.1462591718343753</v>
+        <v>0.1554089481010579</v>
       </c>
       <c r="D134">
-        <v>0.1184656827792023</v>
+        <v>0.135540165089945</v>
       </c>
       <c r="E134">
-        <v>0.1347055563828236</v>
+        <v>0.1501445907188733</v>
       </c>
       <c r="F134">
-        <v>0.224414708753399</v>
+        <v>0.2403948086323537</v>
       </c>
       <c r="G134">
-        <v>0.08700639286556867</v>
+        <v>0.09832369544218343</v>
       </c>
       <c r="H134">
-        <v>0.1082179376233519</v>
-      </c>
-      <c r="I134">
-        <v>0.09411564817812416</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1236221959943103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.09934875076827596</v>
+        <v>0.1117577234680506</v>
       </c>
       <c r="C135">
-        <v>0.1207931386799898</v>
+        <v>0.1389124139564187</v>
       </c>
       <c r="D135">
-        <v>0.1138920589469205</v>
+        <v>0.129497310198196</v>
       </c>
       <c r="E135">
-        <v>0.1171728027772084</v>
+        <v>0.137136554055259</v>
       </c>
       <c r="F135">
-        <v>0.2406958027865589</v>
+        <v>0.2842820456071469</v>
       </c>
       <c r="G135">
-        <v>0.07593152219621403</v>
+        <v>0.09004103033349226</v>
       </c>
       <c r="H135">
-        <v>0.09525800494846798</v>
-      </c>
-      <c r="I135">
-        <v>0.1369079188963644</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1083729223814364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.1609633626061465</v>
+        <v>0.1859536008841828</v>
       </c>
       <c r="C136">
-        <v>0.1009861928732996</v>
+        <v>0.1155936272585194</v>
       </c>
       <c r="D136">
-        <v>0.1167744638456285</v>
+        <v>0.1416953404288956</v>
       </c>
       <c r="E136">
-        <v>0.1062934124841795</v>
+        <v>0.1181732770203268</v>
       </c>
       <c r="F136">
-        <v>0.09363476063292031</v>
+        <v>0.1089426939571974</v>
       </c>
       <c r="G136">
-        <v>0.1394522952227662</v>
+        <v>0.1581625349877622</v>
       </c>
       <c r="H136">
-        <v>0.151467055347966</v>
-      </c>
-      <c r="I136">
-        <v>0.1304284569870935</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1714789254631159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1320474672031119</v>
+        <v>0.1497808294433259</v>
       </c>
       <c r="C137">
-        <v>0.1122824005039298</v>
+        <v>0.1296401490308883</v>
       </c>
       <c r="D137">
-        <v>0.1252231620151328</v>
+        <v>0.1418248073889331</v>
       </c>
       <c r="E137">
-        <v>0.1255669403979132</v>
+        <v>0.1433651359797408</v>
       </c>
       <c r="F137">
-        <v>0.1266969279814074</v>
+        <v>0.1448954735156363</v>
       </c>
       <c r="G137">
-        <v>0.1209529818856161</v>
+        <v>0.1425113504762393</v>
       </c>
       <c r="H137">
-        <v>0.1306296603600855</v>
-      </c>
-      <c r="I137">
-        <v>0.1266004596528033</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1479822541652362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.07124445764295652</v>
+        <v>0.0841602670358305</v>
       </c>
       <c r="C138">
-        <v>0.1277411440302655</v>
+        <v>0.1445145003605812</v>
       </c>
       <c r="D138">
-        <v>0.138129861873323</v>
+        <v>0.1489404526336888</v>
       </c>
       <c r="E138">
-        <v>0.1263126309705547</v>
+        <v>0.1383941535966233</v>
       </c>
       <c r="F138">
-        <v>0.2532402959272773</v>
+        <v>0.2767787141660939</v>
       </c>
       <c r="G138">
-        <v>0.07809435158321097</v>
+        <v>0.09248318836622714</v>
       </c>
       <c r="H138">
-        <v>0.0927593060200429</v>
-      </c>
-      <c r="I138">
-        <v>0.1124779519523691</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1147287238409551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.09205630294785218</v>
+        <v>0.10559320046812</v>
       </c>
       <c r="C139">
-        <v>0.08878265186528947</v>
+        <v>0.09583114101941922</v>
       </c>
       <c r="D139">
-        <v>0.1425531611775017</v>
+        <v>0.1311952463800477</v>
       </c>
       <c r="E139">
-        <v>0.110346457809321</v>
+        <v>0.1308387313501283</v>
       </c>
       <c r="F139">
-        <v>0.1184184828607764</v>
+        <v>0.104225438868176</v>
       </c>
       <c r="G139">
-        <v>0.2569227104220504</v>
+        <v>0.3090983689162856</v>
       </c>
       <c r="H139">
-        <v>0.1041700753057436</v>
-      </c>
-      <c r="I139">
-        <v>0.08675015761146526</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1232178729978233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1063827920723498</v>
+        <v>0.1215383946392056</v>
       </c>
       <c r="C140">
-        <v>0.1379851799239349</v>
+        <v>0.1608182072820637</v>
       </c>
       <c r="D140">
-        <v>0.121140332251098</v>
+        <v>0.1329821794445558</v>
       </c>
       <c r="E140">
-        <v>0.1233087392940238</v>
+        <v>0.1392030349971877</v>
       </c>
       <c r="F140">
-        <v>0.1706094447839301</v>
+        <v>0.2012651489270819</v>
       </c>
       <c r="G140">
-        <v>0.1107940127067365</v>
+        <v>0.1343612713791859</v>
       </c>
       <c r="H140">
-        <v>0.1005376898708751</v>
-      </c>
-      <c r="I140">
-        <v>0.1292418090970518</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1098317633307194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.1154309045231588</v>
+        <v>0.1378674792677104</v>
       </c>
       <c r="C141">
-        <v>0.1743694158201075</v>
+        <v>0.2073640792653425</v>
       </c>
       <c r="D141">
-        <v>0.08579332121702053</v>
+        <v>0.1063826884965575</v>
       </c>
       <c r="E141">
-        <v>0.09843696427223216</v>
+        <v>0.1214421358385815</v>
       </c>
       <c r="F141">
-        <v>0.05286554097111235</v>
+        <v>0.06427160518431405</v>
       </c>
       <c r="G141">
-        <v>0.1892354662082051</v>
+        <v>0.2241561601818092</v>
       </c>
       <c r="H141">
-        <v>0.1169374374735344</v>
-      </c>
-      <c r="I141">
-        <v>0.1669309495146291</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.1385158517656848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1448490349825041</v>
+        <v>0.1692746759587141</v>
       </c>
       <c r="C142">
-        <v>0.1383318693915559</v>
+        <v>0.1606113576202447</v>
       </c>
       <c r="D142">
-        <v>0.1174221511723504</v>
+        <v>0.1406907527246592</v>
       </c>
       <c r="E142">
-        <v>0.1223023799648381</v>
+        <v>0.1472578901796131</v>
       </c>
       <c r="F142">
-        <v>0.06956006759281691</v>
+        <v>0.08253014734299409</v>
       </c>
       <c r="G142">
-        <v>0.1285979288889488</v>
+        <v>0.1489873580496484</v>
       </c>
       <c r="H142">
-        <v>0.1284531819644731</v>
-      </c>
-      <c r="I142">
-        <v>0.1504833860425128</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1506478181241264</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.2780369211257981</v>
+        <v>0.3173320660800794</v>
       </c>
       <c r="C143">
-        <v>0.1847281185213953</v>
+        <v>0.1761310463344284</v>
       </c>
       <c r="D143">
-        <v>0.02486978335875375</v>
+        <v>0.0284020615810296</v>
       </c>
       <c r="E143">
-        <v>0.02124518517650443</v>
+        <v>0.02532481001255287</v>
       </c>
       <c r="F143">
-        <v>0.1947224727118694</v>
+        <v>0.2182520057330458</v>
       </c>
       <c r="G143">
-        <v>0.04194470425392641</v>
+        <v>0.0478690392946983</v>
       </c>
       <c r="H143">
-        <v>0.1635775183490569</v>
-      </c>
-      <c r="I143">
-        <v>0.09087529650269549</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.1866889709641655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.1734206006745666</v>
+        <v>0.2025791069902977</v>
       </c>
       <c r="C144">
-        <v>0.1619106830786668</v>
+        <v>0.2004801785489884</v>
       </c>
       <c r="D144">
-        <v>0.07030807008006683</v>
+        <v>0.08331102634361826</v>
       </c>
       <c r="E144">
-        <v>0.08499720827029195</v>
+        <v>0.1002101204787398</v>
       </c>
       <c r="F144">
-        <v>0.04533765170183857</v>
+        <v>0.05197010861397334</v>
       </c>
       <c r="G144">
-        <v>0.2295871236065609</v>
+        <v>0.2656452933516441</v>
       </c>
       <c r="H144">
-        <v>0.07676926550633209</v>
-      </c>
-      <c r="I144">
-        <v>0.1576693970816762</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.09580416567273856</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.148911481589491</v>
+        <v>0.173235145717489</v>
       </c>
       <c r="C145">
-        <v>0.1052485880324218</v>
+        <v>0.1203947165520976</v>
       </c>
       <c r="D145">
-        <v>0.09622459367847351</v>
+        <v>0.1068064848057853</v>
       </c>
       <c r="E145">
-        <v>0.1356766094481387</v>
+        <v>0.1563630289902579</v>
       </c>
       <c r="F145">
-        <v>0.1023215815559762</v>
+        <v>0.1122263308274383</v>
       </c>
       <c r="G145">
-        <v>0.1399935034211528</v>
+        <v>0.1603877754991123</v>
       </c>
       <c r="H145">
-        <v>0.1491223750977064</v>
-      </c>
-      <c r="I145">
-        <v>0.1225012671766395</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1705865176078197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.1056411817907619</v>
+        <v>0.1166253193987922</v>
       </c>
       <c r="C146">
-        <v>0.1231955999150106</v>
+        <v>0.1435378458804912</v>
       </c>
       <c r="D146">
-        <v>0.1031611740927767</v>
+        <v>0.113600833766646</v>
       </c>
       <c r="E146">
-        <v>0.1137467189163391</v>
+        <v>0.1285781471913128</v>
       </c>
       <c r="F146">
-        <v>0.2457136795157257</v>
+        <v>0.2842235107203425</v>
       </c>
       <c r="G146">
-        <v>0.06264752990476372</v>
+        <v>0.07479057704936087</v>
       </c>
       <c r="H146">
-        <v>0.1232747248098277</v>
-      </c>
-      <c r="I146">
-        <v>0.1226193910547948</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.1386437659930544</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1500214589932184</v>
+        <v>0.1716138632375957</v>
       </c>
       <c r="C147">
-        <v>0.132107198556091</v>
+        <v>0.1512071605154759</v>
       </c>
       <c r="D147">
-        <v>0.1082614019552955</v>
+        <v>0.1242268284380309</v>
       </c>
       <c r="E147">
-        <v>0.1347939979404657</v>
+        <v>0.1507519516068874</v>
       </c>
       <c r="F147">
-        <v>0.05438759411218537</v>
+        <v>0.06452522498723617</v>
       </c>
       <c r="G147">
-        <v>0.1360098829761112</v>
+        <v>0.160548674617854</v>
       </c>
       <c r="H147">
-        <v>0.1519312198788551</v>
-      </c>
-      <c r="I147">
-        <v>0.1324872455877776</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1771262965969199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1076068641475313</v>
+        <v>0.1245050676873187</v>
       </c>
       <c r="C148">
-        <v>0.1222799797579718</v>
+        <v>0.138235203398543</v>
       </c>
       <c r="D148">
-        <v>0.1043419053942157</v>
+        <v>0.1190713554650881</v>
       </c>
       <c r="E148">
-        <v>0.1276293407741189</v>
+        <v>0.1451020019882514</v>
       </c>
       <c r="F148">
-        <v>0.221403278156844</v>
+        <v>0.2527806657575299</v>
       </c>
       <c r="G148">
-        <v>0.08784235815472373</v>
+        <v>0.09967413551554467</v>
       </c>
       <c r="H148">
-        <v>0.103862545979085</v>
-      </c>
-      <c r="I148">
-        <v>0.1250337276355095</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1206315701877241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.08259015167957294</v>
+        <v>0.0956502422790122</v>
       </c>
       <c r="C149">
-        <v>0.1315600331191834</v>
+        <v>0.1565551130274921</v>
       </c>
       <c r="D149">
-        <v>0.1172088324903998</v>
+        <v>0.1361580670692439</v>
       </c>
       <c r="E149">
-        <v>0.1312488143319296</v>
+        <v>0.1510041518377164</v>
       </c>
       <c r="F149">
-        <v>0.1987435953951894</v>
+        <v>0.2295545921808647</v>
       </c>
       <c r="G149">
-        <v>0.09206908264539744</v>
+        <v>0.1027206013118659</v>
       </c>
       <c r="H149">
-        <v>0.1093267265546985</v>
-      </c>
-      <c r="I149">
-        <v>0.1372527637836289</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.1283572322938049</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.1269665098277115</v>
+        <v>0.1513418151858306</v>
       </c>
       <c r="C150">
-        <v>0.116046251420522</v>
+        <v>0.136773177142345</v>
       </c>
       <c r="D150">
-        <v>0.1308817800162566</v>
+        <v>0.1467582260506454</v>
       </c>
       <c r="E150">
-        <v>0.1194522282540868</v>
+        <v>0.1347365444504995</v>
       </c>
       <c r="F150">
-        <v>0.120817555381514</v>
+        <v>0.1353338535325579</v>
       </c>
       <c r="G150">
-        <v>0.1329663603233652</v>
+        <v>0.1544815895436084</v>
       </c>
       <c r="H150">
-        <v>0.1169807393122939</v>
-      </c>
-      <c r="I150">
-        <v>0.1358885754642502</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.1405747940945134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.1099213376706453</v>
+        <v>0.1253944966674637</v>
       </c>
       <c r="C151">
-        <v>0.09340579421346751</v>
+        <v>0.1103542055367596</v>
       </c>
       <c r="D151">
-        <v>0.119083305444756</v>
+        <v>0.1388493618049258</v>
       </c>
       <c r="E151">
-        <v>0.1414791103459685</v>
+        <v>0.1590943141788755</v>
       </c>
       <c r="F151">
-        <v>0.2283609699385954</v>
+        <v>0.2620747771776832</v>
       </c>
       <c r="G151">
-        <v>0.07523207815775519</v>
+        <v>0.08726750468391153</v>
       </c>
       <c r="H151">
-        <v>0.1034998525229884</v>
-      </c>
-      <c r="I151">
-        <v>0.1290175517058237</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.1169653399503808</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1076020075095922</v>
+        <v>0.1217122052360615</v>
       </c>
       <c r="C152">
-        <v>0.1054460456609666</v>
+        <v>0.1206548661439833</v>
       </c>
       <c r="D152">
-        <v>0.1239977604634781</v>
+        <v>0.1425613654061839</v>
       </c>
       <c r="E152">
-        <v>0.1350192724351178</v>
+        <v>0.1584999519432823</v>
       </c>
       <c r="F152">
-        <v>0.1969355584311948</v>
+        <v>0.228470245010334</v>
       </c>
       <c r="G152">
-        <v>0.09371656671635963</v>
+        <v>0.1062980643802389</v>
       </c>
       <c r="H152">
-        <v>0.1082275847532721</v>
-      </c>
-      <c r="I152">
-        <v>0.1290552040300187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1218033018799161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1058802006340943</v>
+        <v>0.1174815606325681</v>
       </c>
       <c r="C153">
-        <v>0.09914272317581474</v>
+        <v>0.115186686614401</v>
       </c>
       <c r="D153">
-        <v>0.1279520580243312</v>
+        <v>0.1464604456719749</v>
       </c>
       <c r="E153">
-        <v>0.1302759008463172</v>
+        <v>0.1439960325646795</v>
       </c>
       <c r="F153">
-        <v>0.2057576836244001</v>
+        <v>0.2420598020945283</v>
       </c>
       <c r="G153">
-        <v>0.1013335258697365</v>
+        <v>0.1206313079698368</v>
       </c>
       <c r="H153">
-        <v>0.1031234246149258</v>
-      </c>
-      <c r="I153">
-        <v>0.1265344832103802</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.1141841644520113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.1097831780680969</v>
+        <v>0.1295301872573631</v>
       </c>
       <c r="C154">
-        <v>0.1098892775548071</v>
+        <v>0.1268908135413032</v>
       </c>
       <c r="D154">
-        <v>0.09673571980325668</v>
+        <v>0.1136821390201725</v>
       </c>
       <c r="E154">
-        <v>0.1316691071422146</v>
+        <v>0.1562458697252022</v>
       </c>
       <c r="F154">
-        <v>0.2075583196622838</v>
+        <v>0.2353649950841503</v>
       </c>
       <c r="G154">
-        <v>0.1098185191247553</v>
+        <v>0.1236880612275866</v>
       </c>
       <c r="H154">
-        <v>0.09938832020563804</v>
-      </c>
-      <c r="I154">
-        <v>0.1351575584389478</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.1145979341442222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1477771689259027</v>
+        <v>0.1671441968015672</v>
       </c>
       <c r="C155">
-        <v>0.1118521015171004</v>
+        <v>0.1283532003492834</v>
       </c>
       <c r="D155">
-        <v>0.1196097139558752</v>
+        <v>0.137681528102841</v>
       </c>
       <c r="E155">
-        <v>0.1394087097317998</v>
+        <v>0.1594618055147769</v>
       </c>
       <c r="F155">
-        <v>0.05785695194579084</v>
+        <v>0.06588404312524754</v>
       </c>
       <c r="G155">
-        <v>0.1630113614740441</v>
+        <v>0.1957433486778469</v>
       </c>
       <c r="H155">
-        <v>0.1192785319123932</v>
-      </c>
-      <c r="I155">
-        <v>0.1412054605370936</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1457318774284372</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.126419535533822</v>
+        <v>0.1453514705663813</v>
       </c>
       <c r="C156">
-        <v>0.1351481969898352</v>
+        <v>0.1553985457648334</v>
       </c>
       <c r="D156">
-        <v>0.1157070061211093</v>
+        <v>0.1308045447593556</v>
       </c>
       <c r="E156">
-        <v>0.1168418038630431</v>
+        <v>0.1314963940835908</v>
       </c>
       <c r="F156">
-        <v>0.1024621886663106</v>
+        <v>0.1183624311693577</v>
       </c>
       <c r="G156">
-        <v>0.1354624556414411</v>
+        <v>0.1591066250979227</v>
       </c>
       <c r="H156">
-        <v>0.1386977456236057</v>
-      </c>
-      <c r="I156">
-        <v>0.129261067560833</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1594799885585585</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1188163786087199</v>
+        <v>0.1355954096193383</v>
       </c>
       <c r="C157">
-        <v>0.1275053357128342</v>
+        <v>0.1490993686854601</v>
       </c>
       <c r="D157">
-        <v>0.136341085289175</v>
+        <v>0.1568020116933869</v>
       </c>
       <c r="E157">
-        <v>0.128684755590394</v>
+        <v>0.1554740306199322</v>
       </c>
       <c r="F157">
-        <v>0.1457824353552443</v>
+        <v>0.176495175604756</v>
       </c>
       <c r="G157">
-        <v>0.0882910904432746</v>
+        <v>0.1049149133768538</v>
       </c>
       <c r="H157">
-        <v>0.09611256312953917</v>
-      </c>
-      <c r="I157">
-        <v>0.158466355870819</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1216190904002726</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1231518317582839</v>
+        <v>0.1429222442351841</v>
       </c>
       <c r="C158">
-        <v>0.1562212293176761</v>
+        <v>0.1803085994922572</v>
       </c>
       <c r="D158">
-        <v>0.1209023134755695</v>
+        <v>0.1380035311433144</v>
       </c>
       <c r="E158">
-        <v>0.1130636003076662</v>
+        <v>0.1253186098885354</v>
       </c>
       <c r="F158">
-        <v>0.09015582455347534</v>
+        <v>0.09951972283590983</v>
       </c>
       <c r="G158">
-        <v>0.1527069574496286</v>
+        <v>0.1791055572275071</v>
       </c>
       <c r="H158">
-        <v>0.119559670076127</v>
-      </c>
-      <c r="I158">
-        <v>0.1242385730615733</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.1348217351772919</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.109882181539249</v>
+        <v>0.1267833488305434</v>
       </c>
       <c r="C159">
-        <v>0.1454339826942299</v>
+        <v>0.1587314734593831</v>
       </c>
       <c r="D159">
-        <v>0.1027482468402907</v>
+        <v>0.1138812510901725</v>
       </c>
       <c r="E159">
-        <v>0.1270570839812437</v>
+        <v>0.1541553150587667</v>
       </c>
       <c r="F159">
-        <v>0.2393332166910945</v>
+        <v>0.2609624285191297</v>
       </c>
       <c r="G159">
-        <v>0.04960498341569589</v>
+        <v>0.05638460459895422</v>
       </c>
       <c r="H159">
-        <v>0.1096192083543778</v>
-      </c>
-      <c r="I159">
-        <v>0.1163210964838185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1291015784430507</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.102742825113881</v>
+        <v>0.1190153751709846</v>
       </c>
       <c r="C160">
-        <v>0.1435162256121582</v>
+        <v>0.1665527621973198</v>
       </c>
       <c r="D160">
-        <v>0.1172358281189779</v>
+        <v>0.1408972705063737</v>
       </c>
       <c r="E160">
-        <v>0.1327376212432046</v>
+        <v>0.1515553637684048</v>
       </c>
       <c r="F160">
-        <v>0.21170868201388</v>
+        <v>0.2482257396623245</v>
       </c>
       <c r="G160">
-        <v>0.05008866423005044</v>
+        <v>0.05713795164654782</v>
       </c>
       <c r="H160">
-        <v>0.1004198122212271</v>
-      </c>
-      <c r="I160">
-        <v>0.1415503414466207</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.116615537048045</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1253025022258226</v>
+        <v>0.1437970135783029</v>
       </c>
       <c r="C161">
-        <v>0.1127362031914999</v>
+        <v>0.1350643086403394</v>
       </c>
       <c r="D161">
-        <v>0.1224413796180988</v>
+        <v>0.1412117777387498</v>
       </c>
       <c r="E161">
-        <v>0.1272037655758646</v>
+        <v>0.148701175526869</v>
       </c>
       <c r="F161">
-        <v>0.1095097317056905</v>
+        <v>0.1250268265360159</v>
       </c>
       <c r="G161">
-        <v>0.1516910813736876</v>
+        <v>0.1763349186076122</v>
       </c>
       <c r="H161">
-        <v>0.1073855974400214</v>
-      </c>
-      <c r="I161">
-        <v>0.1437297388693147</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1298639793721107</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.09435605978474382</v>
+        <v>0.09884154685004203</v>
       </c>
       <c r="C162">
-        <v>0.1224914826629005</v>
+        <v>0.1454263534079311</v>
       </c>
       <c r="D162">
-        <v>0.1190413871355485</v>
+        <v>0.1432009615566929</v>
       </c>
       <c r="E162">
-        <v>0.1414322031281893</v>
+        <v>0.1665641407288664</v>
       </c>
       <c r="F162">
-        <v>0.1478646943973797</v>
+        <v>0.1710019692049575</v>
       </c>
       <c r="G162">
-        <v>0.1456513718893537</v>
+        <v>0.1647881091194765</v>
       </c>
       <c r="H162">
-        <v>0.1020288923490582</v>
-      </c>
-      <c r="I162">
-        <v>0.1271339086528262</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1101769191320337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.2079644851050136</v>
+        <v>0.2386037120595017</v>
       </c>
       <c r="C163">
-        <v>0.1624078051742459</v>
+        <v>0.1669208232040433</v>
       </c>
       <c r="D163">
-        <v>0.0487757045648063</v>
+        <v>0.05071000287142462</v>
       </c>
       <c r="E163">
-        <v>0.05487472603461701</v>
+        <v>0.05699936675771074</v>
       </c>
       <c r="F163">
-        <v>0.04752705491537494</v>
+        <v>0.05204387058991289</v>
       </c>
       <c r="G163">
-        <v>0.04158662511579909</v>
+        <v>0.03850724996824577</v>
       </c>
       <c r="H163">
-        <v>0.2997811673879984</v>
-      </c>
-      <c r="I163">
-        <v>0.1370824317021448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.3962149745491609</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.150159207082616</v>
+        <v>0.1772453224089811</v>
       </c>
       <c r="C164">
-        <v>0.1160319678107614</v>
+        <v>0.1364685115576154</v>
       </c>
       <c r="D164">
-        <v>0.1034649842923828</v>
+        <v>0.1181071688046315</v>
       </c>
       <c r="E164">
-        <v>0.1027380911662198</v>
+        <v>0.117999533834239</v>
       </c>
       <c r="F164">
-        <v>0.1112373308319823</v>
+        <v>0.1327004705853612</v>
       </c>
       <c r="G164">
-        <v>0.146555161084533</v>
+        <v>0.1799668399416726</v>
       </c>
       <c r="H164">
-        <v>0.1154243047331203</v>
-      </c>
-      <c r="I164">
-        <v>0.1543889529983844</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.137512152867499</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.09506072284002579</v>
+        <v>0.1087144187005802</v>
       </c>
       <c r="C165">
-        <v>0.125858160594474</v>
+        <v>0.1412219286157894</v>
       </c>
       <c r="D165">
-        <v>0.1323511389442524</v>
+        <v>0.1552652623150706</v>
       </c>
       <c r="E165">
-        <v>0.1307601966105892</v>
+        <v>0.1478697005915465</v>
       </c>
       <c r="F165">
-        <v>0.1736697105398042</v>
+        <v>0.1924732634730944</v>
       </c>
       <c r="G165">
-        <v>0.110493133850469</v>
+        <v>0.1276215018622963</v>
       </c>
       <c r="H165">
-        <v>0.1098878071792461</v>
-      </c>
-      <c r="I165">
-        <v>0.1219191294411394</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.1268339244416226</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1452714595685988</v>
+        <v>0.1600185402539518</v>
       </c>
       <c r="C166">
-        <v>0.06234831220254564</v>
+        <v>0.06263540157555089</v>
       </c>
       <c r="D166">
-        <v>0.06288572772447584</v>
+        <v>0.06788701426486309</v>
       </c>
       <c r="E166">
-        <v>0.06589882738847884</v>
+        <v>0.06582565332688177</v>
       </c>
       <c r="F166">
-        <v>0.3940420950290259</v>
+        <v>0.4561937641835804</v>
       </c>
       <c r="G166">
-        <v>0.0641295200029785</v>
+        <v>0.0596977483041241</v>
       </c>
       <c r="H166">
-        <v>0.1206047638680078</v>
-      </c>
-      <c r="I166">
-        <v>0.08481929421588885</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.1277418780910478</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1085490529555704</v>
+        <v>0.123727130709784</v>
       </c>
       <c r="C167">
-        <v>0.116568553260833</v>
+        <v>0.1326604060550068</v>
       </c>
       <c r="D167">
-        <v>0.1369855654157098</v>
+        <v>0.1578422884375908</v>
       </c>
       <c r="E167">
-        <v>0.1354848747920536</v>
+        <v>0.1568042625923661</v>
       </c>
       <c r="F167">
-        <v>0.1807847269150904</v>
+        <v>0.2070856428465523</v>
       </c>
       <c r="G167">
-        <v>0.09611400719649575</v>
+        <v>0.1115003683081011</v>
       </c>
       <c r="H167">
-        <v>0.09768149833912464</v>
-      </c>
-      <c r="I167">
-        <v>0.1278317211251226</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1103799010505989</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1506738057523325</v>
+        <v>0.1744142810322725</v>
       </c>
       <c r="C168">
-        <v>0.1058410677064844</v>
+        <v>0.130022823116976</v>
       </c>
       <c r="D168">
-        <v>0.1075494088945672</v>
+        <v>0.1241135650341696</v>
       </c>
       <c r="E168">
-        <v>0.1069823515274581</v>
+        <v>0.1229308761240907</v>
       </c>
       <c r="F168">
-        <v>0.06039276517764582</v>
+        <v>0.07358712974861871</v>
       </c>
       <c r="G168">
-        <v>0.1719474055431027</v>
+        <v>0.205547641023917</v>
       </c>
       <c r="H168">
-        <v>0.1457623420157733</v>
-      </c>
-      <c r="I168">
-        <v>0.150850853382636</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.1693836839199556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.09967274312975086</v>
+        <v>0.1123883889244527</v>
       </c>
       <c r="C169">
-        <v>0.1308149947050016</v>
+        <v>0.1557572893568213</v>
       </c>
       <c r="D169">
-        <v>0.1220529690083365</v>
+        <v>0.1398670019086014</v>
       </c>
       <c r="E169">
-        <v>0.1419908226395881</v>
+        <v>0.1599818751299932</v>
       </c>
       <c r="F169">
-        <v>0.1574013216776231</v>
+        <v>0.1797964751248604</v>
       </c>
       <c r="G169">
-        <v>0.1086229205461151</v>
+        <v>0.1260459061033278</v>
       </c>
       <c r="H169">
-        <v>0.1124638886080119</v>
-      </c>
-      <c r="I169">
-        <v>0.1269803396855727</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.1261630634519431</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.2166144444896439</v>
+        <v>0.2339841550891177</v>
       </c>
       <c r="C170">
-        <v>0.06359769756540465</v>
+        <v>0.06578901262845714</v>
       </c>
       <c r="D170">
-        <v>0.1168915049746518</v>
+        <v>0.1287334524840207</v>
       </c>
       <c r="E170">
-        <v>0.1823739792922404</v>
+        <v>0.2369390250989578</v>
       </c>
       <c r="F170">
-        <v>0.07397308799750031</v>
+        <v>0.09462313029497409</v>
       </c>
       <c r="G170">
-        <v>0.08069633460955734</v>
+        <v>0.0806410989897004</v>
       </c>
       <c r="H170">
-        <v>0.1419979683590711</v>
-      </c>
-      <c r="I170">
-        <v>0.1238549827119304</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.1592901254147722</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1603234340111445</v>
+        <v>0.1950160916745085</v>
       </c>
       <c r="C171">
-        <v>0.1137615333558404</v>
+        <v>0.1390175691904405</v>
       </c>
       <c r="D171">
-        <v>0.09779317578621277</v>
+        <v>0.1178214802054547</v>
       </c>
       <c r="E171">
-        <v>0.1162089410359819</v>
+        <v>0.144070841128447</v>
       </c>
       <c r="F171">
-        <v>0.05835884117036994</v>
+        <v>0.07148570456036769</v>
       </c>
       <c r="G171">
-        <v>0.1419266609240709</v>
+        <v>0.1639869043513854</v>
       </c>
       <c r="H171">
-        <v>0.144731858522788</v>
-      </c>
-      <c r="I171">
-        <v>0.1668955551935917</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.1686014088893964</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1415971514274809</v>
+        <v>0.1629042629632096</v>
       </c>
       <c r="C172">
-        <v>0.1474197564526966</v>
+        <v>0.1691416763156759</v>
       </c>
       <c r="D172">
-        <v>0.1118498167264638</v>
+        <v>0.1288249480327677</v>
       </c>
       <c r="E172">
-        <v>0.1225091169183138</v>
+        <v>0.1376811563839695</v>
       </c>
       <c r="F172">
-        <v>0.09247572712251263</v>
+        <v>0.1110292902732788</v>
       </c>
       <c r="G172">
-        <v>0.1346904314621667</v>
+        <v>0.1520028300019383</v>
       </c>
       <c r="H172">
-        <v>0.1177367696626308</v>
-      </c>
-      <c r="I172">
-        <v>0.1317212302277347</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1384158360291601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1156310624425281</v>
+        <v>0.1453266835364322</v>
       </c>
       <c r="C173">
-        <v>0.1097281440045693</v>
+        <v>0.1332472308422396</v>
       </c>
       <c r="D173">
-        <v>0.09865700856409844</v>
+        <v>0.1228996960315144</v>
       </c>
       <c r="E173">
-        <v>0.1210810490367645</v>
+        <v>0.1547241240644154</v>
       </c>
       <c r="F173">
-        <v>0.1304902502109028</v>
+        <v>0.1547441171561775</v>
       </c>
       <c r="G173">
-        <v>0.1240956703111115</v>
+        <v>0.1568928772199504</v>
       </c>
       <c r="H173">
-        <v>0.1054091975711528</v>
-      </c>
-      <c r="I173">
-        <v>0.1949076178588726</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1321652711492705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.09288349477758466</v>
+        <v>0.1112701600631279</v>
       </c>
       <c r="C174">
-        <v>0.1101762583906912</v>
+        <v>0.1256516010853645</v>
       </c>
       <c r="D174">
-        <v>0.1069609185524657</v>
+        <v>0.1219845639254185</v>
       </c>
       <c r="E174">
-        <v>0.1389177133805152</v>
+        <v>0.1579455003379046</v>
       </c>
       <c r="F174">
-        <v>0.2158299217049564</v>
+        <v>0.2465784884864617</v>
       </c>
       <c r="G174">
-        <v>0.08456362273535172</v>
+        <v>0.1020626314146802</v>
       </c>
       <c r="H174">
-        <v>0.1203282676812963</v>
-      </c>
-      <c r="I174">
-        <v>0.1303398027771389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1345070546870428</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.09980412699062781</v>
+        <v>0.1175266348178102</v>
       </c>
       <c r="C175">
-        <v>0.1847974336584193</v>
+        <v>0.2163433186109963</v>
       </c>
       <c r="D175">
-        <v>0.1161486617681382</v>
+        <v>0.1327806144247307</v>
       </c>
       <c r="E175">
-        <v>0.1253013892681159</v>
+        <v>0.1400834706257701</v>
       </c>
       <c r="F175">
-        <v>0.06223471306807304</v>
+        <v>0.06865033684942515</v>
       </c>
       <c r="G175">
-        <v>0.1546249565903395</v>
+        <v>0.1727384267029622</v>
       </c>
       <c r="H175">
-        <v>0.1389185298284868</v>
-      </c>
-      <c r="I175">
-        <v>0.1181701888277994</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1518771979683055</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.143038619040173</v>
+        <v>0.1637384639875643</v>
       </c>
       <c r="C176">
-        <v>0.09545561094481478</v>
+        <v>0.1110077196834259</v>
       </c>
       <c r="D176">
-        <v>0.1178404236330367</v>
+        <v>0.134443204640152</v>
       </c>
       <c r="E176">
-        <v>0.1407585254304805</v>
+        <v>0.1611230668221543</v>
       </c>
       <c r="F176">
-        <v>0.1061352969206561</v>
+        <v>0.1175291965324649</v>
       </c>
       <c r="G176">
-        <v>0.1329457063153681</v>
+        <v>0.1550335378071721</v>
       </c>
       <c r="H176">
-        <v>0.1372611216023176</v>
-      </c>
-      <c r="I176">
-        <v>0.1265646961131531</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1571248105270665</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1315596592487226</v>
+        <v>0.1571836680877675</v>
       </c>
       <c r="C177">
-        <v>0.1279932352216978</v>
+        <v>0.1445664606892035</v>
       </c>
       <c r="D177">
-        <v>0.1338156247825554</v>
+        <v>0.1534634676329875</v>
       </c>
       <c r="E177">
-        <v>0.1240020374895627</v>
+        <v>0.1401810764985955</v>
       </c>
       <c r="F177">
-        <v>0.1038268248309454</v>
+        <v>0.11428032862809</v>
       </c>
       <c r="G177">
-        <v>0.1303828267961696</v>
+        <v>0.1494254846859787</v>
       </c>
       <c r="H177">
-        <v>0.1162170223959906</v>
-      </c>
-      <c r="I177">
-        <v>0.1322027692343559</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.1408995137773772</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.1427773326398046</v>
+        <v>0.1712515581809132</v>
       </c>
       <c r="C178">
-        <v>0.1369253678064705</v>
+        <v>0.1570473006089098</v>
       </c>
       <c r="D178">
-        <v>0.1023108879795054</v>
+        <v>0.1186796984023359</v>
       </c>
       <c r="E178">
-        <v>0.1373596251705437</v>
+        <v>0.1578308077748068</v>
       </c>
       <c r="F178">
-        <v>0.05535579147593948</v>
+        <v>0.06443665345197652</v>
       </c>
       <c r="G178">
-        <v>0.1414597845305071</v>
+        <v>0.1662153096945745</v>
       </c>
       <c r="H178">
-        <v>0.1437736852015236</v>
-      </c>
-      <c r="I178">
-        <v>0.1400375251957058</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.1645386718864832</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1077172737396052</v>
+        <v>0.122646354898853</v>
       </c>
       <c r="C179">
-        <v>0.1304645701676906</v>
+        <v>0.150120273875178</v>
       </c>
       <c r="D179">
-        <v>0.1301482689200263</v>
+        <v>0.1516695311250504</v>
       </c>
       <c r="E179">
-        <v>0.1299055699630336</v>
+        <v>0.1485255825604944</v>
       </c>
       <c r="F179">
-        <v>0.1361911081249535</v>
+        <v>0.1546257327538381</v>
       </c>
       <c r="G179">
-        <v>0.1346320520704535</v>
+        <v>0.150979032826778</v>
       </c>
       <c r="H179">
-        <v>0.1059549792650753</v>
-      </c>
-      <c r="I179">
-        <v>0.124986177749162</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1214334919598081</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1156734520564517</v>
+        <v>0.138325037718757</v>
       </c>
       <c r="C180">
-        <v>0.1650833802123096</v>
+        <v>0.1930888828953464</v>
       </c>
       <c r="D180">
-        <v>0.0944615200256459</v>
+        <v>0.1118129914133998</v>
       </c>
       <c r="E180">
-        <v>0.1128729933964516</v>
+        <v>0.130755466427358</v>
       </c>
       <c r="F180">
-        <v>0.06876245527896001</v>
+        <v>0.07813431864437394</v>
       </c>
       <c r="G180">
-        <v>0.1865278004471016</v>
+        <v>0.2167265818021085</v>
       </c>
       <c r="H180">
-        <v>0.1076984862819233</v>
-      </c>
-      <c r="I180">
-        <v>0.1489199123011563</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1311567210986564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1196242259563453</v>
+        <v>0.1408401531685151</v>
       </c>
       <c r="C181">
-        <v>0.126302204308096</v>
+        <v>0.1438254736076833</v>
       </c>
       <c r="D181">
-        <v>0.1157757153123329</v>
+        <v>0.1319899506584091</v>
       </c>
       <c r="E181">
-        <v>0.1197896165523176</v>
+        <v>0.1361185301934174</v>
       </c>
       <c r="F181">
-        <v>0.09857538424355966</v>
+        <v>0.1148873026605072</v>
       </c>
       <c r="G181">
-        <v>0.1615267635513538</v>
+        <v>0.1880440107242995</v>
       </c>
       <c r="H181">
-        <v>0.1268593187675176</v>
-      </c>
-      <c r="I181">
-        <v>0.1315467713084771</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.1442945789871685</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.09715489128620189</v>
+        <v>0.1079997318209578</v>
       </c>
       <c r="C182">
-        <v>0.1253087265414955</v>
+        <v>0.1417175692542458</v>
       </c>
       <c r="D182">
-        <v>0.1256528590949375</v>
+        <v>0.1449481821828301</v>
       </c>
       <c r="E182">
-        <v>0.141545845494198</v>
+        <v>0.1628568797467986</v>
       </c>
       <c r="F182">
-        <v>0.1576839898367566</v>
+        <v>0.1788175235716413</v>
       </c>
       <c r="G182">
-        <v>0.1349593621021619</v>
+        <v>0.1512239452916033</v>
       </c>
       <c r="H182">
-        <v>0.09579666303998585</v>
-      </c>
-      <c r="I182">
-        <v>0.1218976626042628</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.1124361681319231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1354056764473043</v>
+        <v>0.149041744037372</v>
       </c>
       <c r="C183">
-        <v>0.1066859831285012</v>
+        <v>0.1173763565725852</v>
       </c>
       <c r="D183">
-        <v>0.1189821483702037</v>
+        <v>0.1350167238531107</v>
       </c>
       <c r="E183">
-        <v>0.1111183665741765</v>
+        <v>0.1171263802667814</v>
       </c>
       <c r="F183">
-        <v>0.1745264704670021</v>
+        <v>0.1923286384167228</v>
       </c>
       <c r="G183">
-        <v>0.09841934261637937</v>
+        <v>0.1085387246427179</v>
       </c>
       <c r="H183">
-        <v>0.1608293821969699</v>
-      </c>
-      <c r="I183">
-        <v>0.09403263019946287</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.18057143221071</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.09969047987192471</v>
+        <v>0.1161508706630157</v>
       </c>
       <c r="C184">
-        <v>0.1143192931500982</v>
+        <v>0.1342380175815137</v>
       </c>
       <c r="D184">
-        <v>0.1049032049656392</v>
+        <v>0.1226462096849301</v>
       </c>
       <c r="E184">
-        <v>0.1365987367079862</v>
+        <v>0.1580114745993122</v>
       </c>
       <c r="F184">
-        <v>0.19454296714261</v>
+        <v>0.2192210112870301</v>
       </c>
       <c r="G184">
-        <v>0.09348267113033291</v>
+        <v>0.1091304792283205</v>
       </c>
       <c r="H184">
-        <v>0.1239373057632825</v>
-      </c>
-      <c r="I184">
-        <v>0.132525341268126</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1406019369558776</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1355476069684069</v>
+        <v>0.1498883506523837</v>
       </c>
       <c r="C185">
-        <v>0.08097614905103738</v>
+        <v>0.1023595563639198</v>
       </c>
       <c r="D185">
-        <v>0.05558648472603163</v>
+        <v>0.06659450614939125</v>
       </c>
       <c r="E185">
-        <v>0.07231885382033139</v>
+        <v>0.08656737571182639</v>
       </c>
       <c r="F185">
-        <v>0.1322431084701474</v>
+        <v>0.1682640878298947</v>
       </c>
       <c r="G185">
-        <v>0.2989641199472907</v>
+        <v>0.3330555694875783</v>
       </c>
       <c r="H185">
-        <v>0.0814147197928792</v>
-      </c>
-      <c r="I185">
-        <v>0.1429489572238754</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.09327055380500601</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.1083158681574375</v>
+        <v>0.1250330789953498</v>
       </c>
       <c r="C186">
-        <v>0.134527603494647</v>
+        <v>0.1526387464690205</v>
       </c>
       <c r="D186">
-        <v>0.1358523572854523</v>
+        <v>0.1631887716516437</v>
       </c>
       <c r="E186">
-        <v>0.1195928625491128</v>
+        <v>0.1429076771202917</v>
       </c>
       <c r="F186">
-        <v>0.1382429293890181</v>
+        <v>0.164963116091965</v>
       </c>
       <c r="G186">
-        <v>0.1086888452297014</v>
+        <v>0.1223014219657918</v>
       </c>
       <c r="H186">
-        <v>0.1073126761437083</v>
-      </c>
-      <c r="I186">
-        <v>0.1474668577509227</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.1289671877059377</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1122893402277729</v>
+        <v>0.1250168217916751</v>
       </c>
       <c r="C187">
-        <v>0.1154360369223432</v>
+        <v>0.1304793484607985</v>
       </c>
       <c r="D187">
-        <v>0.10099966375352</v>
+        <v>0.1161708921968545</v>
       </c>
       <c r="E187">
-        <v>0.1222040426670007</v>
+        <v>0.1381154420792147</v>
       </c>
       <c r="F187">
-        <v>0.2197596965610618</v>
+        <v>0.2578345939299736</v>
       </c>
       <c r="G187">
-        <v>0.0868213128606781</v>
+        <v>0.09784052224252662</v>
       </c>
       <c r="H187">
-        <v>0.1170986826544824</v>
-      </c>
-      <c r="I187">
-        <v>0.1253912243531408</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1345423792989568</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3219060903883657</v>
+        <v>0.3732463770138433</v>
       </c>
       <c r="C188">
-        <v>0.109575052414209</v>
+        <v>0.1360817717327832</v>
       </c>
       <c r="D188">
-        <v>0.05482127884094175</v>
+        <v>0.05930942358817924</v>
       </c>
       <c r="E188">
-        <v>0.07279411222359922</v>
+        <v>0.08792038733894593</v>
       </c>
       <c r="F188">
-        <v>0.03804313814705411</v>
+        <v>0.0458160193034857</v>
       </c>
       <c r="G188">
-        <v>0.04705635643348138</v>
+        <v>0.06072057869376442</v>
       </c>
       <c r="H188">
-        <v>0.197797484265574</v>
-      </c>
-      <c r="I188">
-        <v>0.1580064872867748</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.2369054423289981</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.153818911877358</v>
+        <v>0.1669476261794512</v>
       </c>
       <c r="C189">
-        <v>0.09640996625514058</v>
+        <v>0.1087380412759416</v>
       </c>
       <c r="D189">
-        <v>0.1405707184314161</v>
+        <v>0.1607775474894617</v>
       </c>
       <c r="E189">
-        <v>0.1378231352276248</v>
+        <v>0.1586264387038055</v>
       </c>
       <c r="F189">
-        <v>0.1191227243621017</v>
+        <v>0.1286493676051983</v>
       </c>
       <c r="G189">
-        <v>0.1298957474404986</v>
+        <v>0.1458497366296685</v>
       </c>
       <c r="H189">
-        <v>0.1174534399816171</v>
-      </c>
-      <c r="I189">
-        <v>0.1049053564242432</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.1304112421164733</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1642077556676148</v>
+        <v>0.1981105538003219</v>
       </c>
       <c r="C190">
-        <v>0.1451556532811039</v>
+        <v>0.165316355702041</v>
       </c>
       <c r="D190">
-        <v>0.1122344832708755</v>
+        <v>0.128007870164082</v>
       </c>
       <c r="E190">
-        <v>0.1145070354062368</v>
+        <v>0.1282176528796071</v>
       </c>
       <c r="F190">
-        <v>0.0906565125012074</v>
+        <v>0.1004616312546344</v>
       </c>
       <c r="G190">
-        <v>0.1119509156965647</v>
+        <v>0.1282579912119799</v>
       </c>
       <c r="H190">
-        <v>0.1391375853059831</v>
-      </c>
-      <c r="I190">
-        <v>0.1221500588704138</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1516279449873338</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1033642331222498</v>
+        <v>0.1161411590166918</v>
       </c>
       <c r="C191">
-        <v>0.1143389368782265</v>
+        <v>0.129256377501447</v>
       </c>
       <c r="D191">
-        <v>0.1216622926818871</v>
+        <v>0.1320830215232735</v>
       </c>
       <c r="E191">
-        <v>0.1097722118842149</v>
+        <v>0.126051902262396</v>
       </c>
       <c r="F191">
-        <v>0.2142816332214472</v>
+        <v>0.2470965170286184</v>
       </c>
       <c r="G191">
-        <v>0.104874139242625</v>
+        <v>0.1225966414078285</v>
       </c>
       <c r="H191">
-        <v>0.1076513541687828</v>
-      </c>
-      <c r="I191">
-        <v>0.1240551988005665</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1267743812597449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1120294007377858</v>
+        <v>0.1283428315880835</v>
       </c>
       <c r="C192">
-        <v>0.1142826400727944</v>
+        <v>0.1287569313193217</v>
       </c>
       <c r="D192">
-        <v>0.1235801379117447</v>
+        <v>0.145523194305692</v>
       </c>
       <c r="E192">
-        <v>0.1209492485580099</v>
+        <v>0.1362181891563188</v>
       </c>
       <c r="F192">
-        <v>0.2211364544902828</v>
+        <v>0.2464706312746486</v>
       </c>
       <c r="G192">
-        <v>0.09397713580226602</v>
+        <v>0.1075301332290433</v>
       </c>
       <c r="H192">
-        <v>0.08978730304317113</v>
-      </c>
-      <c r="I192">
-        <v>0.1242576793839452</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1071580891268921</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1251794214301108</v>
+        <v>0.1461349042116292</v>
       </c>
       <c r="C193">
-        <v>0.1280847271531361</v>
+        <v>0.1388032453555127</v>
       </c>
       <c r="D193">
-        <v>0.1167759208988208</v>
+        <v>0.1327771959286853</v>
       </c>
       <c r="E193">
-        <v>0.1267774168109092</v>
+        <v>0.1442483737850896</v>
       </c>
       <c r="F193">
-        <v>0.11399190698989</v>
+        <v>0.1305671612467881</v>
       </c>
       <c r="G193">
-        <v>0.1310618593755503</v>
+        <v>0.14560242246094</v>
       </c>
       <c r="H193">
-        <v>0.1457098071217487</v>
-      </c>
-      <c r="I193">
-        <v>0.1124189402198341</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1618666970113552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.1641161786492454</v>
+        <v>0.1943829630377005</v>
       </c>
       <c r="C194">
-        <v>0.1340334070811296</v>
+        <v>0.1584828526957272</v>
       </c>
       <c r="D194">
-        <v>0.1013715975373036</v>
+        <v>0.1205596272213209</v>
       </c>
       <c r="E194">
-        <v>0.09859804239594659</v>
+        <v>0.1182512716286237</v>
       </c>
       <c r="F194">
-        <v>0.05832746644869046</v>
+        <v>0.07020137256182833</v>
       </c>
       <c r="G194">
-        <v>0.1519690560964525</v>
+        <v>0.1803965820194416</v>
       </c>
       <c r="H194">
-        <v>0.1395501614226123</v>
-      </c>
-      <c r="I194">
-        <v>0.1520340903686197</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.1577253308353578</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.2021878882857392</v>
+        <v>0.2328015340793593</v>
       </c>
       <c r="C195">
-        <v>0.132772128537622</v>
+        <v>0.1513224528715959</v>
       </c>
       <c r="D195">
-        <v>0.06693699438159863</v>
+        <v>0.0743883552180452</v>
       </c>
       <c r="E195">
-        <v>0.1526150125853474</v>
+        <v>0.1630892513596013</v>
       </c>
       <c r="F195">
-        <v>0.04509174415593908</v>
+        <v>0.05406399776932719</v>
       </c>
       <c r="G195">
-        <v>0.1565046620882427</v>
+        <v>0.166689407153358</v>
       </c>
       <c r="H195">
-        <v>0.1366729923893897</v>
-      </c>
-      <c r="I195">
-        <v>0.1072185775761213</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.1576450015487132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1017155619695024</v>
+        <v>0.1174287506053124</v>
       </c>
       <c r="C196">
-        <v>0.1417644860714979</v>
+        <v>0.1681007068660435</v>
       </c>
       <c r="D196">
-        <v>0.1177697541839089</v>
+        <v>0.1318362419436657</v>
       </c>
       <c r="E196">
-        <v>0.1258615249161913</v>
+        <v>0.141725415657752</v>
       </c>
       <c r="F196">
-        <v>0.1575210705801805</v>
+        <v>0.1906831672139585</v>
       </c>
       <c r="G196">
-        <v>0.1112381205973282</v>
+        <v>0.132777964132298</v>
       </c>
       <c r="H196">
-        <v>0.1011574557642138</v>
-      </c>
-      <c r="I196">
-        <v>0.1429720259171768</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.1174477535809697</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.1039719650545883</v>
+        <v>0.1145181606609671</v>
       </c>
       <c r="C197">
-        <v>0.136987958776524</v>
+        <v>0.1548936352062115</v>
       </c>
       <c r="D197">
-        <v>0.1277555268140464</v>
+        <v>0.1461808877880183</v>
       </c>
       <c r="E197">
-        <v>0.1345931190460335</v>
+        <v>0.1543776514982066</v>
       </c>
       <c r="F197">
-        <v>0.1484180915795481</v>
+        <v>0.1677881482689334</v>
       </c>
       <c r="G197">
-        <v>0.1181974474095912</v>
+        <v>0.1370079748737052</v>
       </c>
       <c r="H197">
-        <v>0.1106444077859018</v>
-      </c>
-      <c r="I197">
-        <v>0.1194314835337667</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1252335417039578</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1335634908872192</v>
+        <v>0.1521463687094053</v>
       </c>
       <c r="C198">
-        <v>0.1156036795538142</v>
+        <v>0.1358756995329249</v>
       </c>
       <c r="D198">
-        <v>0.1213802674901805</v>
+        <v>0.1394690953682908</v>
       </c>
       <c r="E198">
-        <v>0.1275334901365264</v>
+        <v>0.1467019853998247</v>
       </c>
       <c r="F198">
-        <v>0.1096744012873574</v>
+        <v>0.1251570595718059</v>
       </c>
       <c r="G198">
-        <v>0.1276795337515667</v>
+        <v>0.1475561135948725</v>
       </c>
       <c r="H198">
-        <v>0.1320523402634225</v>
-      </c>
-      <c r="I198">
-        <v>0.132512796629913</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.153093677822876</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.1469559366469886</v>
+        <v>0.1709958560828843</v>
       </c>
       <c r="C199">
-        <v>0.1220829758339036</v>
+        <v>0.1484932757132019</v>
       </c>
       <c r="D199">
-        <v>0.08309791844402716</v>
+        <v>0.1012473257892896</v>
       </c>
       <c r="E199">
-        <v>0.1140394732949418</v>
+        <v>0.1329932470327229</v>
       </c>
       <c r="F199">
-        <v>0.2361176394743977</v>
+        <v>0.2758984998498079</v>
       </c>
       <c r="G199">
-        <v>0.05135620345423281</v>
+        <v>0.06408730772827451</v>
       </c>
       <c r="H199">
-        <v>0.1049431743104167</v>
-      </c>
-      <c r="I199">
-        <v>0.1414066785410918</v>
+        <v>0.106284487803819</v>
       </c>
     </row>
   </sheetData>
